--- a/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
+++ b/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06FE2E4-5C34-4A02-8D5C-4409FBB6BD51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22278DAE-14A3-4390-B7DA-C5D715E745A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -2444,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G52" sqref="G52:H62"/>
     </sheetView>
@@ -10626,7 +10626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A150" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -11405,7 +11405,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="b">
         <v>1</v>
@@ -11427,7 +11427,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="13" t="b">
         <v>1</v>
@@ -11449,7 +11449,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
+++ b/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22278DAE-14A3-4390-B7DA-C5D715E745A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EAF52A-FACE-43C7-88FA-1E9860B88BEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="640">
   <si>
     <t>setting_name</t>
   </si>
@@ -1597,9 +1597,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>Observacao</t>
-  </si>
-  <si>
     <t>Total amount of blood transfusion (mL)</t>
   </si>
   <si>
@@ -1730,6 +1727,231 @@
   </si>
   <si>
     <t>Diagnostico definitivo 3</t>
+  </si>
+  <si>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Por que a data é desconhecida?</t>
+  </si>
+  <si>
+    <t>Teste de malária</t>
+  </si>
+  <si>
+    <t>Teste de diagnóstico rápido para malária</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Name of child</t>
+  </si>
+  <si>
+    <t>Nome do filho(a)</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Age of child (years)</t>
+  </si>
+  <si>
+    <t>Idade da criança (anos)</t>
+  </si>
+  <si>
+    <t>Age of child (months)</t>
+  </si>
+  <si>
+    <t>Idade da criança (meses)</t>
+  </si>
+  <si>
+    <t>data('meses') &lt;= 12</t>
+  </si>
+  <si>
+    <t>Must be 12 or less:</t>
+  </si>
+  <si>
+    <t>Deve ser 12 ou menos</t>
+  </si>
+  <si>
+    <t>Age of child (weeks)</t>
+  </si>
+  <si>
+    <t>Idade da criança (semanes)</t>
+  </si>
+  <si>
+    <t>Age of child (days)</t>
+  </si>
+  <si>
+    <t>Idade da criança (dias)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Weight of child</t>
+  </si>
+  <si>
+    <t>Peso da criança</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Name of father</t>
+  </si>
+  <si>
+    <t>Nome do pai</t>
+  </si>
+  <si>
+    <t>Name of mother</t>
+  </si>
+  <si>
+    <t>Nome da mãe</t>
+  </si>
+  <si>
+    <t>(data('telmaenr')&gt;100000000 &amp;&amp; data('telmaenr')&lt;=999999999) || data('telmaenr')==null</t>
+  </si>
+  <si>
+    <t>Phone number not correct:</t>
+  </si>
+  <si>
+    <t>O número de telefone está incorreto</t>
+  </si>
+  <si>
+    <t>data('telmaeq') !=null</t>
+  </si>
+  <si>
+    <t>If no phone/number</t>
+  </si>
+  <si>
+    <t>data('telmaeq')</t>
+  </si>
+  <si>
+    <t>If number</t>
+  </si>
+  <si>
+    <t>data('telmaenr')</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Número do telefone</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>selected(data('reg'),'1')</t>
+  </si>
+  <si>
+    <t>Healt center</t>
+  </si>
+  <si>
+    <t>Centro de Saúde</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 1</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 1</t>
+  </si>
+  <si>
+    <t>data('prodiag1n') !=null</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 2</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 2</t>
+  </si>
+  <si>
+    <t>data('prodiag2n') !=null</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 3</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 3</t>
+  </si>
+  <si>
+    <t>data('prodiag3n') !=null</t>
+  </si>
+  <si>
+    <t>Day of admission</t>
+  </si>
+  <si>
+    <t>Dia da admissão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen </t>
   </si>
 </sst>
 </file>
@@ -1780,7 +2002,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1843,12 +2065,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1906,7 +2122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1933,17 +2149,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -2372,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2396,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2442,11 +2657,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:Q1237"/>
+  <dimension ref="A1:Q1292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52:H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,120 +2738,147 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>382</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="H3" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="H7" t="s">
-        <v>491</v>
+        <v>503</v>
+      </c>
+      <c r="P7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H8" t="s">
+        <v>505</v>
+      </c>
+      <c r="P8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>145</v>
       </c>
-      <c r="E8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>488</v>
       </c>
-      <c r="C9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
-      <c r="L10" t="s">
-        <v>494</v>
+      <c r="C10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>8</v>
+        <v>493</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" t="s">
-        <v>495</v>
-      </c>
-      <c r="P11" t="s">
-        <v>403</v>
+        <v>413</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>496</v>
+      <c r="D12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" t="s">
+        <v>414</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="B13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>493</v>
       </c>
-      <c r="F13" t="s">
-        <v>377</v>
-      </c>
-      <c r="L13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>498</v>
+      <c r="F14" t="s">
+        <v>375</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,119 +2893,158 @@
     </row>
     <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>499</v>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>328</v>
       </c>
       <c r="G17" t="s">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="H17" t="s">
-        <v>501</v>
+        <v>589</v>
+      </c>
+      <c r="P17" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="G18" t="s">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P18" t="s">
-        <v>403</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" t="s">
-        <v>504</v>
-      </c>
-      <c r="H19" t="s">
-        <v>505</v>
-      </c>
-      <c r="P19" t="s">
-        <v>403</v>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" t="s">
-        <v>430</v>
-      </c>
-      <c r="F20" t="s">
-        <v>427</v>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" t="s">
-        <v>506</v>
+      <c r="D21" t="s">
+        <v>499</v>
+      </c>
+      <c r="G21" t="s">
+        <v>603</v>
+      </c>
+      <c r="H21" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
-      </c>
-      <c r="L22">
-        <v>99</v>
+        <v>304</v>
+      </c>
+      <c r="G22" t="s">
+        <v>592</v>
+      </c>
+      <c r="H22" t="s">
+        <v>593</v>
+      </c>
+      <c r="P22" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
-      </c>
-      <c r="L23">
-        <v>99</v>
+        <v>327</v>
+      </c>
+      <c r="G23" t="s">
+        <v>594</v>
+      </c>
+      <c r="H23" t="s">
+        <v>595</v>
+      </c>
+      <c r="I23" t="s">
+        <v>596</v>
+      </c>
+      <c r="J23" t="s">
+        <v>597</v>
+      </c>
+      <c r="K23" t="s">
+        <v>598</v>
+      </c>
+      <c r="P23" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>498</v>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" t="s">
+        <v>599</v>
+      </c>
+      <c r="H24" t="s">
+        <v>600</v>
+      </c>
+      <c r="P24" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>18</v>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" t="s">
+        <v>601</v>
+      </c>
+      <c r="H25" t="s">
+        <v>602</v>
+      </c>
+      <c r="P25" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s">
-        <v>469</v>
+        <v>331</v>
+      </c>
+      <c r="G28" t="s">
+        <v>605</v>
+      </c>
+      <c r="H28" t="s">
+        <v>606</v>
       </c>
       <c r="P28" t="s">
         <v>403</v>
@@ -2771,378 +3052,430 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
+        <v>343</v>
+      </c>
+      <c r="G29" t="s">
+        <v>607</v>
+      </c>
+      <c r="H29" t="s">
+        <v>608</v>
       </c>
       <c r="P29" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>478</v>
-      </c>
-      <c r="F30" t="s">
-        <v>470</v>
+      <c r="B30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" t="s">
+        <v>609</v>
+      </c>
+      <c r="H32" t="s">
+        <v>610</v>
+      </c>
+      <c r="P32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>611</v>
+      </c>
+      <c r="H33" t="s">
+        <v>612</v>
+      </c>
+      <c r="P33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>621</v>
+      </c>
+      <c r="H34" t="s">
+        <v>622</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J34" t="s">
+        <v>614</v>
+      </c>
+      <c r="K34" t="s">
+        <v>615</v>
+      </c>
+      <c r="P34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>488</v>
       </c>
-      <c r="C31" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="C36" t="s">
+        <v>616</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="Q36" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>493</v>
       </c>
-      <c r="F32" t="s">
-        <v>411</v>
-      </c>
-      <c r="L32" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="L37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+      <c r="I38" s="3"/>
+      <c r="Q38" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>493</v>
       </c>
-      <c r="F35" t="s">
-        <v>411</v>
-      </c>
-      <c r="L35" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="L39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="42" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>306</v>
-      </c>
-      <c r="F39" t="s">
-        <v>412</v>
-      </c>
-      <c r="G39" t="s">
-        <v>510</v>
-      </c>
-      <c r="H39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>623</v>
+      </c>
+      <c r="H43" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" t="s">
+        <v>625</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>536</v>
+      </c>
+      <c r="F45" t="s">
+        <v>551</v>
+      </c>
+      <c r="G45" t="s">
+        <v>626</v>
+      </c>
+      <c r="H45" t="s">
+        <v>627</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>498</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>357</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" t="s">
+        <v>628</v>
+      </c>
+      <c r="H49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>145</v>
       </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>493</v>
-      </c>
-      <c r="F42" t="s">
-        <v>412</v>
-      </c>
-      <c r="L42">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>415</v>
-      </c>
-      <c r="G44" t="s">
-        <v>513</v>
-      </c>
-      <c r="H44" t="s">
-        <v>514</v>
-      </c>
-      <c r="P44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>488</v>
-      </c>
-      <c r="C46" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>493</v>
-      </c>
-      <c r="F47" t="s">
-        <v>415</v>
-      </c>
-      <c r="L47">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>418</v>
-      </c>
-      <c r="F49" t="s">
-        <v>418</v>
-      </c>
-      <c r="G49" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>18</v>
+      <c r="E50" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>17</v>
+        <v>488</v>
+      </c>
+      <c r="C51" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
+        <v>493</v>
+      </c>
+      <c r="F52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>35</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>357</v>
       </c>
-      <c r="F52" t="s">
-        <v>395</v>
-      </c>
-      <c r="G52" t="s">
-        <v>560</v>
-      </c>
-      <c r="H52" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>371</v>
-      </c>
-      <c r="F53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>488</v>
-      </c>
-      <c r="C54" t="s">
-        <v>517</v>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>631</v>
+      </c>
+      <c r="H54" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>493</v>
+        <v>145</v>
+      </c>
+      <c r="E55" t="s">
+        <v>371</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
-      </c>
-      <c r="L55">
-        <v>9999</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>498</v>
+        <v>488</v>
+      </c>
+      <c r="C56" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
+        <v>493</v>
+      </c>
+      <c r="F57" t="s">
+        <v>369</v>
+      </c>
+      <c r="L57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>35</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>357</v>
       </c>
-      <c r="F57" t="s">
-        <v>396</v>
-      </c>
-      <c r="G57" t="s">
-        <v>562</v>
-      </c>
-      <c r="H57" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" t="s">
-        <v>371</v>
-      </c>
-      <c r="F58" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>488</v>
-      </c>
-      <c r="C59" t="s">
-        <v>518</v>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>634</v>
+      </c>
+      <c r="H59" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>493</v>
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>371</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
-      </c>
-      <c r="L60">
-        <v>9999</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>498</v>
+        <v>488</v>
+      </c>
+      <c r="C61" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" t="s">
-        <v>357</v>
+        <v>493</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
-      </c>
-      <c r="G62" t="s">
-        <v>564</v>
-      </c>
-      <c r="H62" t="s">
-        <v>565</v>
+        <v>483</v>
+      </c>
+      <c r="L62">
+        <v>9999</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" t="s">
-        <v>371</v>
-      </c>
-      <c r="F63" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>488</v>
-      </c>
-      <c r="C64" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>493</v>
-      </c>
-      <c r="F65" t="s">
-        <v>479</v>
-      </c>
-      <c r="L65">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>485</v>
-      </c>
-      <c r="G67" t="s">
-        <v>520</v>
-      </c>
-      <c r="H67" t="s">
-        <v>521</v>
-      </c>
-      <c r="P67" t="s">
-        <v>403</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>382</v>
+      </c>
+      <c r="F66" t="s">
+        <v>376</v>
+      </c>
+      <c r="G66" t="s">
+        <v>487</v>
+      </c>
+      <c r="H66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>18</v>
+        <v>488</v>
+      </c>
+      <c r="C68" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3152,16 +3485,16 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="G70" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="H70" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,10 +3502,10 @@
         <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3513,7 @@
         <v>488</v>
       </c>
       <c r="C72" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,914 +3521,865 @@
         <v>493</v>
       </c>
       <c r="F73" t="s">
-        <v>417</v>
-      </c>
-      <c r="L73">
-        <v>99999</v>
+        <v>377</v>
+      </c>
+      <c r="L73" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" t="s">
-        <v>422</v>
-      </c>
-      <c r="F75" t="s">
-        <v>481</v>
-      </c>
-      <c r="G75" t="s">
-        <v>525</v>
-      </c>
-      <c r="H75" t="s">
-        <v>526</v>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" t="s">
+        <v>495</v>
+      </c>
+      <c r="H74" t="s">
+        <v>584</v>
+      </c>
+      <c r="P74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="F76" t="s">
-        <v>482</v>
+        <v>377</v>
+      </c>
+      <c r="L76" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>488</v>
-      </c>
-      <c r="C77" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" t="s">
-        <v>416</v>
-      </c>
-      <c r="L78" s="25" t="s">
-        <v>529</v>
+      <c r="B78" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>496</v>
-      </c>
-      <c r="L79" s="25"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>493</v>
-      </c>
-      <c r="F80" t="s">
-        <v>416</v>
-      </c>
-      <c r="L80" s="25" t="s">
-        <v>530</v>
+        <v>499</v>
+      </c>
+      <c r="G80" t="s">
+        <v>507</v>
+      </c>
+      <c r="H80" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>498</v>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="P81" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>410</v>
+      </c>
+      <c r="P82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="s">
+        <v>478</v>
+      </c>
+      <c r="F83" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>488</v>
       </c>
-      <c r="C83" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>17</v>
+      <c r="C84" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>499</v>
-      </c>
-      <c r="G85" t="s">
-        <v>532</v>
-      </c>
-      <c r="H85" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" t="s">
-        <v>408</v>
-      </c>
-      <c r="G86" t="s">
-        <v>502</v>
-      </c>
-      <c r="H86" t="s">
-        <v>503</v>
-      </c>
-      <c r="P86" t="s">
-        <v>403</v>
-      </c>
-    </row>
+        <v>493</v>
+      </c>
+      <c r="F85" t="s">
+        <v>411</v>
+      </c>
+      <c r="L85" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" t="s">
-        <v>409</v>
-      </c>
-      <c r="G87" t="s">
-        <v>504</v>
-      </c>
-      <c r="H87" t="s">
-        <v>505</v>
-      </c>
-      <c r="P87" t="s">
-        <v>403</v>
+      <c r="B87" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>411</v>
+      </c>
+      <c r="L88" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92" t="s">
+        <v>412</v>
+      </c>
+      <c r="G92" t="s">
+        <v>510</v>
+      </c>
+      <c r="H92" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>488</v>
       </c>
-      <c r="C89" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+      <c r="C94" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>493</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F95" t="s">
+        <v>412</v>
+      </c>
+      <c r="L95">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>415</v>
+      </c>
+      <c r="G97" t="s">
+        <v>513</v>
+      </c>
+      <c r="H97" t="s">
+        <v>514</v>
+      </c>
+      <c r="P97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>488</v>
+      </c>
+      <c r="C99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>493</v>
+      </c>
+      <c r="F100" t="s">
+        <v>415</v>
+      </c>
+      <c r="L100">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" t="s">
+        <v>418</v>
+      </c>
+      <c r="G104" t="s">
+        <v>516</v>
+      </c>
+      <c r="H104" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107" t="s">
+        <v>395</v>
+      </c>
+      <c r="G107" t="s">
+        <v>559</v>
+      </c>
+      <c r="H107" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" t="s">
+        <v>371</v>
+      </c>
+      <c r="F108" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>488</v>
+      </c>
+      <c r="C109" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>493</v>
+      </c>
+      <c r="F110" t="s">
+        <v>395</v>
+      </c>
+      <c r="L110">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" t="s">
+        <v>357</v>
+      </c>
+      <c r="F112" t="s">
+        <v>396</v>
+      </c>
+      <c r="G112" t="s">
+        <v>561</v>
+      </c>
+      <c r="H112" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" t="s">
+        <v>371</v>
+      </c>
+      <c r="F113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>488</v>
+      </c>
+      <c r="C114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>493</v>
+      </c>
+      <c r="F115" t="s">
+        <v>396</v>
+      </c>
+      <c r="L115">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" t="s">
+        <v>357</v>
+      </c>
+      <c r="F117" t="s">
+        <v>479</v>
+      </c>
+      <c r="G117" t="s">
+        <v>563</v>
+      </c>
+      <c r="H117" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" t="s">
+        <v>371</v>
+      </c>
+      <c r="F118" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>488</v>
+      </c>
+      <c r="C119" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>493</v>
+      </c>
+      <c r="F120" t="s">
+        <v>479</v>
+      </c>
+      <c r="L120">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>485</v>
+      </c>
+      <c r="G122" t="s">
+        <v>520</v>
+      </c>
+      <c r="H122" t="s">
+        <v>587</v>
+      </c>
+      <c r="P122" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>417</v>
+      </c>
+      <c r="G125" t="s">
+        <v>521</v>
+      </c>
+      <c r="H125" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>488</v>
+      </c>
+      <c r="C127" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>493</v>
+      </c>
+      <c r="F128" t="s">
+        <v>417</v>
+      </c>
+      <c r="L128">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="s">
+        <v>422</v>
+      </c>
+      <c r="F130" t="s">
+        <v>481</v>
+      </c>
+      <c r="G130" t="s">
+        <v>524</v>
+      </c>
+      <c r="H130" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" t="s">
+        <v>526</v>
+      </c>
+      <c r="F131" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>488</v>
+      </c>
+      <c r="C132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>493</v>
+      </c>
+      <c r="F133" t="s">
+        <v>416</v>
+      </c>
+      <c r="L133" s="24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>496</v>
+      </c>
+      <c r="L134" s="24"/>
+    </row>
+    <row r="135" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>493</v>
+      </c>
+      <c r="F135" t="s">
+        <v>416</v>
+      </c>
+      <c r="L135" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>488</v>
+      </c>
+      <c r="C138" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>499</v>
+      </c>
+      <c r="G140" t="s">
+        <v>531</v>
+      </c>
+      <c r="H140" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
         <v>408</v>
       </c>
-      <c r="L90">
+      <c r="G141" t="s">
+        <v>502</v>
+      </c>
+      <c r="H141" t="s">
+        <v>503</v>
+      </c>
+      <c r="P141" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>409</v>
+      </c>
+      <c r="G142" t="s">
+        <v>504</v>
+      </c>
+      <c r="H142" t="s">
+        <v>505</v>
+      </c>
+      <c r="P142" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" t="s">
+        <v>430</v>
+      </c>
+      <c r="F143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>488</v>
+      </c>
+      <c r="C144" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>493</v>
+      </c>
+      <c r="F145" t="s">
+        <v>408</v>
+      </c>
+      <c r="L145">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
+    <row r="146" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>493</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F146" t="s">
         <v>409</v>
       </c>
-      <c r="L91">
+      <c r="L146">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="147" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I142" s="3"/>
-    </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I143" s="3"/>
-      <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I145" s="3"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I146" s="3"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I147" s="3"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I148" s="3"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I149" s="3"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I150" s="3"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I151" s="3"/>
-      <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I152" s="3"/>
-      <c r="M152" s="1"/>
-    </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I153" s="3"/>
-      <c r="M153" s="1"/>
-    </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I154" s="3"/>
-      <c r="M154" s="1"/>
-    </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I155" s="3"/>
-      <c r="M155" s="1"/>
-    </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M156" s="1"/>
-    </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I157" s="3"/>
-      <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I158" s="3"/>
-      <c r="M158" s="1"/>
-    </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I159" s="3"/>
-      <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I160" s="3"/>
-      <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I167" s="3"/>
-    </row>
-    <row r="169" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M173" s="1"/>
-    </row>
-    <row r="174" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M174" s="1"/>
-    </row>
-    <row r="175" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M176" s="1"/>
-    </row>
-    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M193" s="1"/>
-    </row>
-    <row r="194" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M194" s="1"/>
-    </row>
-    <row r="195" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M195" s="1"/>
-    </row>
-    <row r="196" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M196" s="1"/>
-    </row>
-    <row r="197" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M197" s="1"/>
-    </row>
-    <row r="198" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I198" s="3"/>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M199" s="1"/>
-    </row>
-    <row r="202" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I200" s="3"/>
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I201" s="3"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I202" s="3"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I203" s="3"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I204" s="3"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
+    <row r="205" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I205" s="3"/>
       <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
+    </row>
+    <row r="206" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I206" s="3"/>
       <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
+    </row>
+    <row r="207" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I207" s="3"/>
       <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
+    </row>
+    <row r="208" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I208" s="3"/>
       <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
+    </row>
+    <row r="209" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I209" s="3"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
+    </row>
+    <row r="210" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I210" s="3"/>
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I212" s="3"/>
       <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I213" s="3"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I214" s="3"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
+    <row r="215" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I215" s="3"/>
       <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-    </row>
-    <row r="221" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="M223" s="1"/>
-    </row>
-    <row r="224" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I222" s="3"/>
+    </row>
+    <row r="224" spans="9:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
+    </row>
+    <row r="228" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
+    </row>
+    <row r="231" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E232" s="1"/>
       <c r="F232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
       <c r="M232" s="1"/>
-    </row>
-    <row r="233" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+    </row>
+    <row r="233" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-    </row>
-    <row r="234" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+    </row>
+    <row r="234" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -4103,12 +4387,10 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-    </row>
-    <row r="235" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -4116,38 +4398,30 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-    </row>
-    <row r="236" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-    </row>
-    <row r="237" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-    </row>
-    <row r="238" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -4155,37 +4429,31 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-    </row>
-    <row r="240" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-    </row>
-    <row r="241" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -4195,17 +4463,33 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
     </row>
-    <row r="242" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E242" s="1"/>
       <c r="F242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
       <c r="M242" s="1"/>
-    </row>
-    <row r="243" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+    </row>
+    <row r="243" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
       <c r="M243" s="1"/>
-    </row>
-    <row r="244" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+    </row>
+    <row r="244" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -4213,12 +4497,10 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-    </row>
-    <row r="245" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -4226,25 +4508,20 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-    </row>
-    <row r="246" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
-    </row>
-    <row r="247" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -4252,142 +4529,54 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-    </row>
-    <row r="248" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
+    </row>
+    <row r="248" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-    </row>
-    <row r="249" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-    </row>
-    <row r="250" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-    </row>
-    <row r="251" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
+    </row>
+    <row r="249" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M249" s="1"/>
+    </row>
+    <row r="250" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="M250" s="1"/>
+    </row>
+    <row r="251" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-    </row>
-    <row r="252" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F252" s="1"/>
+    </row>
+    <row r="252" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:16" x14ac:dyDescent="0.25">
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F254" s="1"/>
+    <row r="254" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
       <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-    </row>
-    <row r="255" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F255" s="1"/>
+    </row>
+    <row r="255" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
-    </row>
-    <row r="256" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F256" s="1"/>
+    </row>
+    <row r="256" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
-      <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
-      <c r="P256" s="1"/>
-      <c r="Q256" s="1"/>
     </row>
     <row r="257" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
       <c r="M257" s="1"/>
-      <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
-      <c r="P257" s="1"/>
-      <c r="Q257" s="1"/>
     </row>
     <row r="258" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
       <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
     </row>
     <row r="259" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
+      <c r="M259" s="1"/>
     </row>
     <row r="260" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
@@ -4397,16 +4586,39 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
     </row>
     <row r="261" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
       <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
     </row>
     <row r="262" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
       <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
     </row>
     <row r="263" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F263" s="1"/>
@@ -4444,7 +4656,6 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
@@ -4458,7 +4669,6 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
-      <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
@@ -4479,36 +4689,17 @@
       <c r="Q267" s="1"/>
     </row>
     <row r="268" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
-      <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
+      <c r="M268" s="1"/>
     </row>
     <row r="269" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
-      <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
+      <c r="M269" s="1"/>
     </row>
     <row r="270" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -4520,15 +4711,28 @@
     </row>
     <row r="271" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
       <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
     </row>
     <row r="272" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
       <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
     </row>
     <row r="273" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -4540,8 +4744,6 @@
     </row>
     <row r="274" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -4553,25 +4755,19 @@
     </row>
     <row r="275" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
-      <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="1"/>
     </row>
     <row r="276" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
-      <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
@@ -4579,8 +4775,7 @@
     </row>
     <row r="277" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -4591,25 +4786,15 @@
       <c r="Q277" s="1"/>
     </row>
     <row r="278" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
+      <c r="M278" s="1"/>
     </row>
     <row r="279" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
@@ -4617,8 +4802,6 @@
     </row>
     <row r="280" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -4627,18 +4810,39 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
     </row>
     <row r="281" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
       <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
     </row>
     <row r="282" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
       <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
     </row>
     <row r="283" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
@@ -4652,10 +4856,10 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
@@ -4665,10 +4869,10 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
@@ -4678,6 +4882,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -4691,35 +4896,21 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
       <c r="M287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
     </row>
     <row r="288" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
+      <c r="M288" s="1"/>
     </row>
     <row r="289" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
-      <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
@@ -4727,9 +4918,6 @@
     </row>
     <row r="290" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -4737,13 +4925,31 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
     </row>
     <row r="291" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
       <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
     </row>
     <row r="292" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
       <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
     </row>
     <row r="293" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F293" s="1"/>
@@ -4765,7 +4971,6 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
@@ -4775,10 +4980,10 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
@@ -4788,6 +4993,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -4795,57 +5001,59 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-      <c r="Q296" s="1"/>
     </row>
     <row r="297" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
       <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
     </row>
     <row r="298" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
+      <c r="M298" s="1"/>
     </row>
     <row r="299" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
     </row>
     <row r="300" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
       <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
     </row>
     <row r="301" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
       <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
     </row>
     <row r="302" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
-      <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
@@ -4859,7 +5067,6 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -4873,11 +5080,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
@@ -4891,7 +5096,6 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
@@ -4909,39 +5113,20 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
     </row>
     <row r="307" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
+      <c r="M307" s="1"/>
     </row>
     <row r="308" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="1"/>
-      <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
-      <c r="P308" s="1"/>
-      <c r="Q308" s="1"/>
+      <c r="M308" s="1"/>
     </row>
     <row r="309" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
-      <c r="H309" s="1"/>
-      <c r="I309" s="1"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
@@ -4953,10 +5138,27 @@
     </row>
     <row r="310" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
       <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
     </row>
     <row r="311" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
       <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
     </row>
     <row r="312" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F312" s="1"/>
@@ -4991,7 +5193,6 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
-      <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
@@ -5001,39 +5202,24 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
-      <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
     </row>
     <row r="316" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="1"/>
       <c r="M316" s="1"/>
-      <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
-      <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
     </row>
     <row r="317" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
+      <c r="M317" s="1"/>
     </row>
     <row r="318" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F318" s="1"/>
@@ -5043,6 +5229,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
@@ -5050,8 +5237,6 @@
     </row>
     <row r="319" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
-      <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -5060,18 +5245,39 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
     </row>
     <row r="320" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
       <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
     </row>
     <row r="321" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
       <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
     </row>
     <row r="322" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
+      <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -5085,10 +5291,10 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
+      <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
-      <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
@@ -5098,10 +5304,10 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
-      <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
@@ -5111,6 +5317,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -5124,35 +5331,21 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
+      <c r="M326" s="1"/>
     </row>
     <row r="327" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
       <c r="M327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
     </row>
     <row r="328" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
+      <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
@@ -5160,18 +5353,38 @@
     </row>
     <row r="329" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
     </row>
     <row r="330" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+      <c r="P330" s="1"/>
+      <c r="Q330" s="1"/>
+    </row>
+    <row r="331" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="P331" s="1"/>
+      <c r="Q331" s="1"/>
     </row>
     <row r="332" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F332" s="1"/>
@@ -5180,6 +5393,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
@@ -5201,6 +5415,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
@@ -5213,59 +5428,69 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-      <c r="Q335" s="1"/>
     </row>
     <row r="336" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
+      <c r="M336" s="1"/>
     </row>
     <row r="337" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
+      <c r="M337" s="1"/>
     </row>
     <row r="338" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
     </row>
+    <row r="339" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
+    </row>
+    <row r="340" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+    </row>
     <row r="341" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
@@ -5275,10 +5500,10 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
@@ -5288,7 +5513,6 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -5318,51 +5542,56 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
     </row>
     <row r="346" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-      <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
-      <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
+      <c r="M346" s="1"/>
     </row>
     <row r="347" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-      <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
-      <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
+      <c r="M347" s="1"/>
     </row>
     <row r="348" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-      <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
     </row>
     <row r="349" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
+    </row>
+    <row r="350" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
     </row>
     <row r="351" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F351" s="1"/>
@@ -5371,6 +5600,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
@@ -5383,6 +5613,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
@@ -5404,6 +5635,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
@@ -5413,28 +5645,14 @@
       <c r="Q354" s="1"/>
     </row>
     <row r="355" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
-      <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
+      <c r="M355" s="1"/>
     </row>
     <row r="356" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
+      <c r="M356" s="1"/>
     </row>
     <row r="357" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F357" s="1"/>
@@ -5444,18 +5662,26 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
     </row>
     <row r="358" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
       <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
     </row>
     <row r="359" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
@@ -5464,164 +5690,702 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
     </row>
     <row r="360" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
       <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+      <c r="P360" s="1"/>
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+      <c r="P361" s="1"/>
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
     </row>
     <row r="363" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F363" s="1"/>
-    </row>
-    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+      <c r="P364" s="1"/>
+      <c r="Q364" s="1"/>
+    </row>
+    <row r="365" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="M365" s="1"/>
+    </row>
+    <row r="366" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G366" s="1"/>
+      <c r="H366" s="1"/>
+      <c r="M366" s="1"/>
+    </row>
+    <row r="367" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+      <c r="P367" s="1"/>
+      <c r="Q367" s="1"/>
+    </row>
+    <row r="368" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+      <c r="P368" s="1"/>
+      <c r="Q368" s="1"/>
+    </row>
+    <row r="369" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+    </row>
+    <row r="370" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="H370" s="1"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+      <c r="P370" s="1"/>
+      <c r="Q370" s="1"/>
+    </row>
+    <row r="371" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F371" s="1"/>
-    </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="1"/>
+      <c r="H371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+      <c r="P371" s="1"/>
+      <c r="Q371" s="1"/>
+    </row>
+    <row r="372" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
+    </row>
+    <row r="373" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
+    </row>
+    <row r="374" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="P374" s="1"/>
+    </row>
+    <row r="375" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="M375" s="1"/>
+    </row>
+    <row r="376" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="M376" s="1"/>
+    </row>
+    <row r="377" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="1"/>
+      <c r="Q377" s="1"/>
+    </row>
+    <row r="378" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F378" s="1"/>
-    </row>
-    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+    </row>
+    <row r="379" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="P379" s="1"/>
+      <c r="Q379" s="1"/>
+    </row>
+    <row r="380" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+    </row>
+    <row r="381" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F381" s="1"/>
-    </row>
-    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="J381" s="1"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+      <c r="P381" s="1"/>
+      <c r="Q381" s="1"/>
+    </row>
+    <row r="382" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F382" s="1"/>
-    </row>
-    <row r="385" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="J382" s="1"/>
+      <c r="K382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+      <c r="P382" s="1"/>
+      <c r="Q382" s="1"/>
+    </row>
+    <row r="383" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+    </row>
+    <row r="384" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+      <c r="P384" s="1"/>
+    </row>
+    <row r="385" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F385" s="1"/>
-    </row>
-    <row r="386" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F386" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+    </row>
+    <row r="386" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G386" s="1"/>
-    </row>
-    <row r="387" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H386" s="1"/>
+    </row>
+    <row r="387" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F387" s="1"/>
-    </row>
-    <row r="390" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+      <c r="P387" s="1"/>
+      <c r="Q387" s="1"/>
+    </row>
+    <row r="388" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="P388" s="1"/>
+      <c r="Q388" s="1"/>
+    </row>
+    <row r="389" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+      <c r="P389" s="1"/>
+      <c r="Q389" s="1"/>
+    </row>
+    <row r="390" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
-      <c r="M390" t="b">
-        <v>1</v>
-      </c>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
-    </row>
-    <row r="391" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q390" s="1"/>
+    </row>
+    <row r="391" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
-    </row>
-    <row r="392" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q391" s="1"/>
+    </row>
+    <row r="392" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
-    </row>
-    <row r="438" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="1"/>
-    </row>
-    <row r="439" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="1"/>
-    </row>
-    <row r="441" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E441" s="1"/>
+      <c r="Q392" s="1"/>
+    </row>
+    <row r="393" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+    </row>
+    <row r="394" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+    </row>
+    <row r="395" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+    </row>
+    <row r="396" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+    </row>
+    <row r="397" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+    </row>
+    <row r="398" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+    </row>
+    <row r="399" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+    </row>
+    <row r="400" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="P400" s="1"/>
+      <c r="Q400" s="1"/>
+    </row>
+    <row r="401" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="1"/>
+      <c r="Q401" s="1"/>
+    </row>
+    <row r="402" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+      <c r="Q402" s="1"/>
+    </row>
+    <row r="403" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+    </row>
+    <row r="404" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="1"/>
+    </row>
+    <row r="405" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+    </row>
+    <row r="406" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+      <c r="Q406" s="1"/>
+    </row>
+    <row r="407" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+      <c r="Q407" s="1"/>
+    </row>
+    <row r="408" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="P408" s="1"/>
+      <c r="Q408" s="1"/>
+    </row>
+    <row r="409" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+    </row>
+    <row r="410" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="J410" s="1"/>
+      <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="P410" s="1"/>
+      <c r="Q410" s="1"/>
+    </row>
+    <row r="411" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="J411" s="1"/>
+      <c r="K411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="N411" s="1"/>
+      <c r="O411" s="1"/>
+      <c r="P411" s="1"/>
+      <c r="Q411" s="1"/>
+    </row>
+    <row r="412" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+      <c r="Q412" s="1"/>
+    </row>
+    <row r="413" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="M413" s="1"/>
+    </row>
+    <row r="414" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1"/>
+      <c r="N414" s="1"/>
+      <c r="O414" s="1"/>
+      <c r="P414" s="1"/>
+    </row>
+    <row r="415" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="M415" s="1"/>
+    </row>
+    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+    </row>
+    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+    </row>
+    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+    </row>
+    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G421" s="1"/>
+      <c r="H421" s="1"/>
+    </row>
+    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G422" s="1"/>
+      <c r="H422" s="1"/>
+    </row>
+    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G423" s="1"/>
+      <c r="H423" s="1"/>
+    </row>
+    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G424" s="1"/>
+      <c r="H424" s="1"/>
+    </row>
+    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G425" s="1"/>
+      <c r="H425" s="1"/>
+    </row>
+    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F426" s="1"/>
+    </row>
+    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G428" s="1"/>
+      <c r="H428" s="1"/>
+    </row>
+    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G429" s="1"/>
+      <c r="H429" s="1"/>
+    </row>
+    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G430" s="1"/>
+      <c r="H430" s="1"/>
+    </row>
+    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G431" s="1"/>
+      <c r="H431" s="1"/>
+    </row>
+    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G432" s="1"/>
+      <c r="H432" s="1"/>
+    </row>
+    <row r="433" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F433" s="1"/>
+      <c r="G433" s="1"/>
+      <c r="H433" s="1"/>
+    </row>
+    <row r="434" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G434" s="1"/>
+      <c r="H434" s="1"/>
+    </row>
+    <row r="436" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F436" s="1"/>
+      <c r="G436" s="1"/>
+      <c r="H436" s="1"/>
+    </row>
+    <row r="437" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F437" s="1"/>
+    </row>
+    <row r="440" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F440" s="1"/>
+    </row>
+    <row r="441" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F441" s="1"/>
-      <c r="G441" s="1"/>
-      <c r="H441" s="1"/>
-      <c r="I441" s="1"/>
-      <c r="J441" s="1"/>
-      <c r="K441" s="1"/>
-      <c r="L441" s="1"/>
-      <c r="N441" s="1"/>
-      <c r="O441" s="1"/>
-      <c r="P441" s="1"/>
-    </row>
-    <row r="442" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E442" s="1"/>
+    </row>
+    <row r="442" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F442" s="1"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="1"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="1"/>
-      <c r="L442" s="1"/>
-      <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
-      <c r="P442" s="1"/>
-    </row>
-    <row r="443" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-      <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1"/>
-      <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
-      <c r="P443" s="1"/>
-    </row>
-    <row r="444" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F444" s="1"/>
-      <c r="G444" s="1"/>
-      <c r="H444" s="1"/>
-      <c r="I444" s="1"/>
-      <c r="J444" s="1"/>
-      <c r="K444" s="1"/>
-      <c r="L444" s="1"/>
-      <c r="N444" s="1"/>
-      <c r="O444" s="1"/>
-      <c r="P444" s="1"/>
-    </row>
-    <row r="445" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F445" s="1"/>
-      <c r="G445" s="1"/>
-      <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
+      <c r="M445" t="b">
+        <v>1</v>
+      </c>
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
     </row>
-    <row r="446" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F446" s="1"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
@@ -5630,10 +6394,8 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
     </row>
-    <row r="447" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
@@ -5642,249 +6404,294 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
     </row>
-    <row r="448" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F448" s="1"/>
-      <c r="G448" s="1"/>
-      <c r="H448" s="1"/>
-      <c r="I448" s="1"/>
-      <c r="J448" s="1"/>
-      <c r="K448" s="1"/>
-      <c r="L448" s="1"/>
-      <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
-      <c r="P448" s="1"/>
-    </row>
-    <row r="449" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F449" s="1"/>
-      <c r="G449" s="1"/>
-      <c r="H449" s="1"/>
-      <c r="I449" s="1"/>
-      <c r="J449" s="1"/>
-      <c r="K449" s="1"/>
-      <c r="L449" s="1"/>
-      <c r="N449" s="1"/>
-      <c r="O449" s="1"/>
-      <c r="P449" s="1"/>
-    </row>
-    <row r="450" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E450" s="1"/>
-      <c r="F450" s="1"/>
-      <c r="G450" s="1"/>
-      <c r="H450" s="1"/>
-      <c r="I450" s="1"/>
-      <c r="J450" s="1"/>
-      <c r="K450" s="1"/>
-      <c r="L450" s="1"/>
-      <c r="N450" s="1"/>
-      <c r="O450" s="1"/>
-      <c r="P450" s="1"/>
-    </row>
-    <row r="451" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
-      <c r="G451" s="1"/>
-      <c r="H451" s="1"/>
-      <c r="I451" s="1"/>
-      <c r="J451" s="1"/>
-      <c r="K451" s="1"/>
-      <c r="L451" s="1"/>
-      <c r="N451" s="1"/>
-      <c r="O451" s="1"/>
-      <c r="P451" s="1"/>
-    </row>
-    <row r="452" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
-      <c r="J452" s="1"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1"/>
-      <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
-    </row>
-    <row r="453" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F453" s="1"/>
-      <c r="G453" s="1"/>
-      <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
-      <c r="J453" s="1"/>
-      <c r="K453" s="1"/>
-      <c r="L453" s="1"/>
-      <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
-    </row>
-    <row r="454" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F454" s="1"/>
-      <c r="G454" s="1"/>
-      <c r="H454" s="1"/>
-      <c r="I454" s="1"/>
-      <c r="J454" s="1"/>
-      <c r="K454" s="1"/>
-      <c r="L454" s="1"/>
-      <c r="N454" s="1"/>
-      <c r="O454" s="1"/>
-      <c r="P454" s="1"/>
-    </row>
-    <row r="455" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F455" s="1"/>
-      <c r="G455" s="1"/>
-      <c r="H455" s="1"/>
-      <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
-      <c r="K455" s="1"/>
-      <c r="L455" s="1"/>
-      <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
-    </row>
-    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M474" s="1"/>
-    </row>
-    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M476" s="1"/>
-    </row>
-    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M477" s="1"/>
-    </row>
-    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M478" s="1"/>
-    </row>
-    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M479" s="1"/>
-    </row>
-    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M480" s="1"/>
-    </row>
-    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M481" s="1"/>
-    </row>
-    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M482" s="1"/>
-    </row>
-    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M485" s="1"/>
-    </row>
-    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M486" s="1"/>
-    </row>
-    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M487" s="1"/>
-    </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M488" s="1"/>
-    </row>
-    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M489" s="1"/>
-    </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M490" s="1"/>
-    </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M491" s="1"/>
-    </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M492" s="1"/>
-    </row>
-    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M505" s="1"/>
-    </row>
-    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M506" s="1"/>
-    </row>
-    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M507" s="1"/>
-    </row>
-    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M508" s="1"/>
-    </row>
-    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M509" s="1"/>
-    </row>
-    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M510" s="1"/>
-    </row>
-    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M511" s="1"/>
-    </row>
-    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M512" s="1"/>
-    </row>
-    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M515" s="1"/>
-    </row>
-    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M516" s="1"/>
-    </row>
-    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M517" s="1"/>
-    </row>
-    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M518" s="1"/>
-    </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M519" s="1"/>
-    </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M520" s="1"/>
-    </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M521" s="1"/>
-    </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M522" s="1"/>
-    </row>
-    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M524" s="1"/>
-    </row>
-    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M525" s="1"/>
-    </row>
-    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M526" s="1"/>
-    </row>
-    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M527" s="1"/>
-    </row>
-    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M528" s="1"/>
-    </row>
-    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G463" s="1"/>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G467" s="1"/>
+      <c r="H467" s="1"/>
+    </row>
+    <row r="468" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G468" s="1"/>
+      <c r="H468" s="1"/>
+    </row>
+    <row r="469" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G469" s="1"/>
+      <c r="H469" s="1"/>
+    </row>
+    <row r="493" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F493" s="1"/>
+      <c r="I493" s="1"/>
+      <c r="J493" s="1"/>
+      <c r="K493" s="1"/>
+      <c r="L493" s="1"/>
+      <c r="N493" s="1"/>
+      <c r="O493" s="1"/>
+      <c r="P493" s="1"/>
+    </row>
+    <row r="494" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F494" s="1"/>
+      <c r="I494" s="1"/>
+      <c r="J494" s="1"/>
+      <c r="K494" s="1"/>
+      <c r="L494" s="1"/>
+      <c r="N494" s="1"/>
+      <c r="O494" s="1"/>
+      <c r="P494" s="1"/>
+    </row>
+    <row r="496" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="I496" s="1"/>
+      <c r="J496" s="1"/>
+      <c r="K496" s="1"/>
+      <c r="L496" s="1"/>
+      <c r="N496" s="1"/>
+      <c r="O496" s="1"/>
+      <c r="P496" s="1"/>
+    </row>
+    <row r="497" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="I497" s="1"/>
+      <c r="J497" s="1"/>
+      <c r="K497" s="1"/>
+      <c r="L497" s="1"/>
+      <c r="N497" s="1"/>
+      <c r="O497" s="1"/>
+      <c r="P497" s="1"/>
+    </row>
+    <row r="498" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F498" s="1"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
+      <c r="K498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="N498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="P498" s="1"/>
+    </row>
+    <row r="499" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F499" s="1"/>
+      <c r="I499" s="1"/>
+      <c r="J499" s="1"/>
+      <c r="K499" s="1"/>
+      <c r="L499" s="1"/>
+      <c r="N499" s="1"/>
+      <c r="O499" s="1"/>
+      <c r="P499" s="1"/>
+    </row>
+    <row r="500" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F500" s="1"/>
+      <c r="I500" s="1"/>
+      <c r="J500" s="1"/>
+      <c r="K500" s="1"/>
+      <c r="L500" s="1"/>
+      <c r="N500" s="1"/>
+      <c r="O500" s="1"/>
+      <c r="P500" s="1"/>
+    </row>
+    <row r="501" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F501" s="1"/>
+      <c r="I501" s="1"/>
+      <c r="J501" s="1"/>
+      <c r="K501" s="1"/>
+      <c r="L501" s="1"/>
+      <c r="N501" s="1"/>
+      <c r="O501" s="1"/>
+      <c r="P501" s="1"/>
+    </row>
+    <row r="502" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F502" s="1"/>
+      <c r="I502" s="1"/>
+      <c r="J502" s="1"/>
+      <c r="K502" s="1"/>
+      <c r="L502" s="1"/>
+      <c r="N502" s="1"/>
+      <c r="O502" s="1"/>
+      <c r="P502" s="1"/>
+    </row>
+    <row r="503" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F503" s="1"/>
+      <c r="I503" s="1"/>
+      <c r="J503" s="1"/>
+      <c r="K503" s="1"/>
+      <c r="L503" s="1"/>
+      <c r="N503" s="1"/>
+      <c r="O503" s="1"/>
+      <c r="P503" s="1"/>
+    </row>
+    <row r="504" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F504" s="1"/>
+      <c r="I504" s="1"/>
+      <c r="J504" s="1"/>
+      <c r="K504" s="1"/>
+      <c r="L504" s="1"/>
+      <c r="N504" s="1"/>
+      <c r="O504" s="1"/>
+      <c r="P504" s="1"/>
+    </row>
+    <row r="505" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E505" s="1"/>
+      <c r="F505" s="1"/>
+      <c r="I505" s="1"/>
+      <c r="J505" s="1"/>
+      <c r="K505" s="1"/>
+      <c r="L505" s="1"/>
+      <c r="N505" s="1"/>
+      <c r="O505" s="1"/>
+      <c r="P505" s="1"/>
+    </row>
+    <row r="506" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+      <c r="I506" s="1"/>
+      <c r="J506" s="1"/>
+      <c r="K506" s="1"/>
+      <c r="L506" s="1"/>
+      <c r="N506" s="1"/>
+      <c r="O506" s="1"/>
+      <c r="P506" s="1"/>
+    </row>
+    <row r="507" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F507" s="1"/>
+      <c r="I507" s="1"/>
+      <c r="J507" s="1"/>
+      <c r="K507" s="1"/>
+      <c r="L507" s="1"/>
+      <c r="N507" s="1"/>
+      <c r="O507" s="1"/>
+      <c r="P507" s="1"/>
+    </row>
+    <row r="508" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F508" s="1"/>
+      <c r="I508" s="1"/>
+      <c r="J508" s="1"/>
+      <c r="K508" s="1"/>
+      <c r="L508" s="1"/>
+      <c r="N508" s="1"/>
+      <c r="O508" s="1"/>
+      <c r="P508" s="1"/>
+    </row>
+    <row r="509" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F509" s="1"/>
+      <c r="I509" s="1"/>
+      <c r="J509" s="1"/>
+      <c r="K509" s="1"/>
+      <c r="L509" s="1"/>
+      <c r="N509" s="1"/>
+      <c r="O509" s="1"/>
+      <c r="P509" s="1"/>
+    </row>
+    <row r="510" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F510" s="1"/>
+      <c r="I510" s="1"/>
+      <c r="J510" s="1"/>
+      <c r="K510" s="1"/>
+      <c r="L510" s="1"/>
+      <c r="N510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="P510" s="1"/>
+    </row>
+    <row r="515" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G515" s="1"/>
+      <c r="H515" s="1"/>
+    </row>
+    <row r="516" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G516" s="1"/>
+      <c r="H516" s="1"/>
+    </row>
+    <row r="518" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G518" s="1"/>
+      <c r="H518" s="1"/>
+    </row>
+    <row r="519" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G519" s="1"/>
+      <c r="H519" s="1"/>
+    </row>
+    <row r="520" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G520" s="1"/>
+      <c r="H520" s="1"/>
+    </row>
+    <row r="521" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G521" s="1"/>
+      <c r="H521" s="1"/>
+    </row>
+    <row r="522" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G522" s="1"/>
+      <c r="H522" s="1"/>
+    </row>
+    <row r="523" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G523" s="1"/>
+      <c r="H523" s="1"/>
+    </row>
+    <row r="524" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G524" s="1"/>
+      <c r="H524" s="1"/>
+    </row>
+    <row r="525" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G525" s="1"/>
+      <c r="H525" s="1"/>
+    </row>
+    <row r="526" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G526" s="1"/>
+      <c r="H526" s="1"/>
+    </row>
+    <row r="527" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G527" s="1"/>
+      <c r="H527" s="1"/>
+    </row>
+    <row r="528" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G528" s="1"/>
+      <c r="H528" s="1"/>
+    </row>
+    <row r="529" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G529" s="1"/>
+      <c r="H529" s="1"/>
       <c r="M529" s="1"/>
     </row>
-    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M530" s="1"/>
-    </row>
-    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G530" s="1"/>
+      <c r="H530" s="1"/>
+    </row>
+    <row r="531" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G531" s="1"/>
+      <c r="H531" s="1"/>
       <c r="M531" s="1"/>
     </row>
-    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G532" s="1"/>
+      <c r="H532" s="1"/>
+      <c r="M532" s="1"/>
+    </row>
+    <row r="533" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="M533" s="1"/>
+    </row>
+    <row r="534" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M534" s="1"/>
     </row>
-    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M535" s="1"/>
     </row>
-    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M536" s="1"/>
     </row>
-    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M537" s="1"/>
     </row>
-    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M538" s="1"/>
-    </row>
-    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M539" s="1"/>
-    </row>
-    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M541" s="1"/>
     </row>
-    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="1"/>
+    </row>
+    <row r="543" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="M543" s="1"/>
+    </row>
+    <row r="544" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M544" s="1"/>
     </row>
     <row r="545" spans="13:13" x14ac:dyDescent="0.25">
@@ -5896,39 +6703,15 @@
     <row r="547" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M547" s="1"/>
     </row>
-    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M548" s="1"/>
-    </row>
-    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M549" s="1"/>
-    </row>
-    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M550" s="1"/>
-    </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M551" s="1"/>
-    </row>
-    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M554" s="1"/>
-    </row>
-    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M555" s="1"/>
-    </row>
-    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M556" s="1"/>
-    </row>
-    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M557" s="1"/>
-    </row>
-    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M558" s="1"/>
-    </row>
-    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M559" s="1"/>
-    </row>
     <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560" s="1"/>
     </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="1"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="1"/>
+    </row>
     <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563" s="1"/>
     </row>
@@ -5944,15 +6727,15 @@
     <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M568" s="1"/>
-    </row>
-    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M569" s="1"/>
-    </row>
     <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570" s="1"/>
     </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="1"/>
+    </row>
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="1"/>
+    </row>
     <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573" s="1"/>
     </row>
@@ -5968,15 +6751,18 @@
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M578" s="1"/>
-    </row>
     <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579" s="1"/>
     </row>
     <row r="580" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M580" s="1"/>
     </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="1"/>
+    </row>
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M582" s="1"/>
+    </row>
     <row r="583" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M583" s="1"/>
     </row>
@@ -5989,18 +6775,18 @@
     <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M587" s="1"/>
-    </row>
-    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M588" s="1"/>
-    </row>
     <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589" s="1"/>
     </row>
     <row r="590" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M590" s="1"/>
     </row>
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M591" s="1"/>
+    </row>
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M592" s="1"/>
+    </row>
     <row r="593" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M593" s="1"/>
     </row>
@@ -6013,15 +6799,15 @@
     <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M597" s="1"/>
-    </row>
-    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M598" s="1"/>
-    </row>
     <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599" s="1"/>
     </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="1"/>
+    </row>
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="1"/>
+    </row>
     <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602" s="1"/>
     </row>
@@ -6037,15 +6823,15 @@
     <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M607" s="1"/>
-    </row>
-    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M608" s="1"/>
-    </row>
     <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609" s="1"/>
     </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="1"/>
+    </row>
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M611" s="1"/>
+    </row>
     <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612" s="1"/>
     </row>
@@ -6058,18 +6844,18 @@
     <row r="615" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M615" s="1"/>
     </row>
-    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M616" s="1"/>
-    </row>
-    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M617" s="1"/>
-    </row>
     <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618" s="1"/>
     </row>
     <row r="619" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M619" s="1"/>
     </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="1"/>
+    </row>
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M621" s="1"/>
+    </row>
     <row r="622" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M622" s="1"/>
     </row>
@@ -6082,18 +6868,18 @@
     <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M626" s="1"/>
-    </row>
-    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M627" s="1"/>
-    </row>
     <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628" s="1"/>
     </row>
     <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629" s="1"/>
     </row>
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M630" s="1"/>
+    </row>
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M631" s="1"/>
+    </row>
     <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632" s="1"/>
     </row>
@@ -6106,15 +6892,15 @@
     <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M636" s="1"/>
-    </row>
-    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M637" s="1"/>
-    </row>
     <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638" s="1"/>
     </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="1"/>
+    </row>
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M640" s="1"/>
+    </row>
     <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641" s="1"/>
     </row>
@@ -6130,15 +6916,15 @@
     <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M646" s="1"/>
-    </row>
-    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M647" s="1"/>
-    </row>
     <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648" s="1"/>
     </row>
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M649" s="1"/>
+    </row>
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M650" s="1"/>
+    </row>
     <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651" s="1"/>
     </row>
@@ -6151,138 +6937,159 @@
     <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654" s="1"/>
     </row>
-    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M655" s="1"/>
-    </row>
-    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M656" s="1"/>
-    </row>
     <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" s="1"/>
     </row>
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M658" s="1"/>
+    </row>
     <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659" s="1"/>
     </row>
-    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M735" s="1"/>
-    </row>
-    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M737" s="1"/>
-    </row>
-    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M738" s="1"/>
-    </row>
-    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M739" s="1"/>
-    </row>
-    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M740" s="1"/>
-    </row>
-    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M741" s="1"/>
-    </row>
-    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M742" s="1"/>
-    </row>
-    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M743" s="1"/>
-    </row>
-    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M746" s="1"/>
-    </row>
-    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M747" s="1"/>
-    </row>
-    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M748" s="1"/>
-    </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M749" s="1"/>
-    </row>
-    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M750" s="1"/>
-    </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M751" s="1"/>
-    </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M752" s="1"/>
-    </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M753" s="1"/>
-    </row>
-    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M766" s="1"/>
-    </row>
-    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M767" s="1"/>
-    </row>
-    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M768" s="1"/>
-    </row>
-    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M769" s="1"/>
-    </row>
-    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M770" s="1"/>
-    </row>
-    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M771" s="1"/>
-    </row>
-    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M772" s="1"/>
-    </row>
-    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M773" s="1"/>
-    </row>
-    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M776" s="1"/>
-    </row>
-    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M777" s="1"/>
-    </row>
-    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M778" s="1"/>
-    </row>
-    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M779" s="1"/>
-    </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M780" s="1"/>
-    </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M781" s="1"/>
-    </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M782" s="1"/>
-    </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M783" s="1"/>
-    </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M785" s="1"/>
-    </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M786" s="1"/>
-    </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M787" s="1"/>
-    </row>
-    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M788" s="1"/>
-    </row>
-    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M789" s="1"/>
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M660" s="1"/>
+    </row>
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M661" s="1"/>
+    </row>
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M662" s="1"/>
+    </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M663" s="1"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M664" s="1"/>
+    </row>
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M667" s="1"/>
+    </row>
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M668" s="1"/>
+    </row>
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M669" s="1"/>
+    </row>
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M670" s="1"/>
+    </row>
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M671" s="1"/>
+    </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="1"/>
+    </row>
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M673" s="1"/>
+    </row>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="1"/>
+    </row>
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M677" s="1"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M678" s="1"/>
+    </row>
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M679" s="1"/>
+    </row>
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M680" s="1"/>
+    </row>
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M681" s="1"/>
+    </row>
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M682" s="1"/>
+    </row>
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M683" s="1"/>
+    </row>
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M684" s="1"/>
+    </row>
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M687" s="1"/>
+    </row>
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M688" s="1"/>
+    </row>
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M689" s="1"/>
+    </row>
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M690" s="1"/>
+    </row>
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M691" s="1"/>
+    </row>
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M692" s="1"/>
+    </row>
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M693" s="1"/>
+    </row>
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M696" s="1"/>
+    </row>
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M697" s="1"/>
+    </row>
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M698" s="1"/>
+    </row>
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M699" s="1"/>
+    </row>
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M700" s="1"/>
+    </row>
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M701" s="1"/>
+    </row>
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M702" s="1"/>
+    </row>
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M703" s="1"/>
+    </row>
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M706" s="1"/>
+    </row>
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M707" s="1"/>
+    </row>
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M708" s="1"/>
+    </row>
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M709" s="1"/>
+    </row>
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M710" s="1"/>
+    </row>
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M711" s="1"/>
+    </row>
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M712" s="1"/>
+    </row>
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M714" s="1"/>
     </row>
     <row r="790" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M790" s="1"/>
     </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M791" s="1"/>
-    </row>
     <row r="792" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M792" s="1"/>
     </row>
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M793" s="1"/>
+    </row>
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M794" s="1"/>
+    </row>
     <row r="795" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M795" s="1"/>
     </row>
@@ -6295,18 +7102,18 @@
     <row r="798" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M798" s="1"/>
     </row>
-    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M799" s="1"/>
-    </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M800" s="1"/>
-    </row>
     <row r="801" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M801" s="1"/>
     </row>
     <row r="802" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M802" s="1"/>
     </row>
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M803" s="1"/>
+    </row>
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M804" s="1"/>
+    </row>
     <row r="805" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M805" s="1"/>
     </row>
@@ -6319,39 +7126,15 @@
     <row r="808" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M808" s="1"/>
     </row>
-    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M809" s="1"/>
-    </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M810" s="1"/>
-    </row>
-    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M811" s="1"/>
-    </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M812" s="1"/>
-    </row>
-    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M815" s="1"/>
-    </row>
-    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M816" s="1"/>
-    </row>
-    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M817" s="1"/>
-    </row>
-    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M818" s="1"/>
-    </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M819" s="1"/>
-    </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M820" s="1"/>
-    </row>
     <row r="821" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M821" s="1"/>
     </row>
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M822" s="1"/>
+    </row>
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M823" s="1"/>
+    </row>
     <row r="824" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M824" s="1"/>
     </row>
@@ -6367,15 +7150,15 @@
     <row r="828" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M828" s="1"/>
     </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M829" s="1"/>
-    </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M830" s="1"/>
-    </row>
     <row r="831" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M831" s="1"/>
     </row>
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M832" s="1"/>
+    </row>
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M833" s="1"/>
+    </row>
     <row r="834" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M834" s="1"/>
     </row>
@@ -6391,15 +7174,18 @@
     <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838" s="1"/>
     </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M839" s="1"/>
-    </row>
     <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840" s="1"/>
     </row>
     <row r="841" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M841" s="1"/>
     </row>
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M842" s="1"/>
+    </row>
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M843" s="1"/>
+    </row>
     <row r="844" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M844" s="1"/>
     </row>
@@ -6412,18 +7198,18 @@
     <row r="847" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M847" s="1"/>
     </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M848" s="1"/>
-    </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M849" s="1"/>
-    </row>
     <row r="850" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M850" s="1"/>
     </row>
     <row r="851" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M851" s="1"/>
     </row>
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M852" s="1"/>
+    </row>
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M853" s="1"/>
+    </row>
     <row r="854" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M854" s="1"/>
     </row>
@@ -6436,15 +7222,15 @@
     <row r="857" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M857" s="1"/>
     </row>
-    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M858" s="1"/>
-    </row>
-    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M859" s="1"/>
-    </row>
     <row r="860" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M860" s="1"/>
     </row>
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M861" s="1"/>
+    </row>
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M862" s="1"/>
+    </row>
     <row r="863" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M863" s="1"/>
     </row>
@@ -6460,15 +7246,15 @@
     <row r="867" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M867" s="1"/>
     </row>
-    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M868" s="1"/>
-    </row>
-    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M869" s="1"/>
-    </row>
     <row r="870" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M870" s="1"/>
     </row>
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M871" s="1"/>
+    </row>
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M872" s="1"/>
+    </row>
     <row r="873" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M873" s="1"/>
     </row>
@@ -6481,18 +7267,18 @@
     <row r="876" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M876" s="1"/>
     </row>
-    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M877" s="1"/>
-    </row>
-    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M878" s="1"/>
-    </row>
     <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879" s="1"/>
     </row>
     <row r="880" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M880" s="1"/>
     </row>
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M881" s="1"/>
+    </row>
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M882" s="1"/>
+    </row>
     <row r="883" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M883" s="1"/>
     </row>
@@ -6505,18 +7291,18 @@
     <row r="886" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M886" s="1"/>
     </row>
-    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M887" s="1"/>
-    </row>
-    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M888" s="1"/>
-    </row>
     <row r="889" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M889" s="1"/>
     </row>
     <row r="890" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M890" s="1"/>
     </row>
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M891" s="1"/>
+    </row>
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M892" s="1"/>
+    </row>
     <row r="893" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M893" s="1"/>
     </row>
@@ -6529,15 +7315,15 @@
     <row r="896" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M896" s="1"/>
     </row>
-    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M897" s="1"/>
-    </row>
-    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M898" s="1"/>
-    </row>
     <row r="899" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M899" s="1"/>
     </row>
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M900" s="1"/>
+    </row>
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M901" s="1"/>
+    </row>
     <row r="902" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M902" s="1"/>
     </row>
@@ -6553,15 +7339,15 @@
     <row r="906" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M906" s="1"/>
     </row>
-    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M907" s="1"/>
-    </row>
-    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M908" s="1"/>
-    </row>
     <row r="909" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M909" s="1"/>
     </row>
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M910" s="1"/>
+    </row>
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M911" s="1"/>
+    </row>
     <row r="912" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M912" s="1"/>
     </row>
@@ -6574,26 +7360,101 @@
     <row r="915" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M915" s="1"/>
     </row>
-    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M916" s="1"/>
-    </row>
-    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M917" s="1"/>
-    </row>
     <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918" s="1"/>
     </row>
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M919" s="1"/>
+    </row>
     <row r="920" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M920" s="1"/>
     </row>
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M921" s="1"/>
+    </row>
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M922" s="1"/>
+    </row>
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M923" s="1"/>
+    </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M924" s="1"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M925" s="1"/>
+    </row>
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M928" s="1"/>
+    </row>
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M929" s="1"/>
+    </row>
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M930" s="1"/>
+    </row>
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M931" s="1"/>
+    </row>
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M932" s="1"/>
+    </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M933" s="1"/>
+    </row>
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M934" s="1"/>
+    </row>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M935" s="1"/>
+    </row>
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M938" s="1"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M939" s="1"/>
+    </row>
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M940" s="1"/>
+    </row>
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M941" s="1"/>
+    </row>
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M942" s="1"/>
+    </row>
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M943" s="1"/>
+    </row>
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M944" s="1"/>
+    </row>
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M945" s="1"/>
+    </row>
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M948" s="1"/>
+    </row>
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M949" s="1"/>
+    </row>
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M950" s="1"/>
+    </row>
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M951" s="1"/>
+    </row>
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M952" s="1"/>
+    </row>
     <row r="953" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M953" s="1"/>
     </row>
     <row r="954" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M954" s="1"/>
     </row>
-    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M955" s="1"/>
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M957" s="1"/>
     </row>
     <row r="958" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M958" s="1"/>
@@ -6616,128 +7477,71 @@
     <row r="964" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M964" s="1"/>
     </row>
-    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M966" s="1"/>
-    </row>
-    <row r="1053" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1053" s="1"/>
-    </row>
-    <row r="1055" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1055" s="1"/>
-    </row>
-    <row r="1056" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1056" s="1"/>
-    </row>
-    <row r="1057" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1057" s="1"/>
-    </row>
-    <row r="1058" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1058" s="1"/>
-    </row>
-    <row r="1059" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1059" s="1"/>
-    </row>
-    <row r="1060" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1060" s="1"/>
-    </row>
-    <row r="1061" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1061" s="1"/>
-    </row>
-    <row r="1064" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1064" s="1"/>
-    </row>
-    <row r="1065" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1065" s="1"/>
-    </row>
-    <row r="1066" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1066" s="1"/>
-    </row>
-    <row r="1067" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1067" s="1"/>
-    </row>
-    <row r="1068" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1068" s="1"/>
-    </row>
-    <row r="1069" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1069" s="1"/>
-    </row>
-    <row r="1070" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1070" s="1"/>
-    </row>
-    <row r="1071" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1071" s="1"/>
-    </row>
-    <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1083" s="1"/>
-    </row>
-    <row r="1084" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1084" s="1"/>
-    </row>
-    <row r="1085" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1085" s="1"/>
-    </row>
-    <row r="1086" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1086" s="1"/>
-    </row>
-    <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1087" s="1"/>
-    </row>
-    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1088" s="1"/>
-    </row>
-    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1089" s="1"/>
-    </row>
-    <row r="1090" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1090" s="1"/>
-    </row>
-    <row r="1093" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1093" s="1"/>
-    </row>
-    <row r="1094" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1094" s="1"/>
-    </row>
-    <row r="1095" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1095" s="1"/>
-    </row>
-    <row r="1096" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1096" s="1"/>
-    </row>
-    <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1097" s="1"/>
-    </row>
-    <row r="1098" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1098" s="1"/>
-    </row>
-    <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1099" s="1"/>
-    </row>
-    <row r="1100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1100" s="1"/>
-    </row>
-    <row r="1102" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1102" s="1"/>
-    </row>
-    <row r="1103" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1103" s="1"/>
-    </row>
-    <row r="1104" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1104" s="1"/>
-    </row>
-    <row r="1105" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1105" s="1"/>
-    </row>
-    <row r="1106" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1106" s="1"/>
-    </row>
-    <row r="1107" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1107" s="1"/>
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M967" s="1"/>
+    </row>
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M968" s="1"/>
+    </row>
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M969" s="1"/>
+    </row>
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M970" s="1"/>
+    </row>
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M971" s="1"/>
+    </row>
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M972" s="1"/>
+    </row>
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M973" s="1"/>
+    </row>
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M975" s="1"/>
+    </row>
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1008" s="1"/>
+    </row>
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1009" s="1"/>
+    </row>
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1010" s="1"/>
+    </row>
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1013" s="1"/>
+    </row>
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1014" s="1"/>
+    </row>
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1015" s="1"/>
+    </row>
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1016" s="1"/>
+    </row>
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1017" s="1"/>
+    </row>
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1018" s="1"/>
+    </row>
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1019" s="1"/>
+    </row>
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1021" s="1"/>
     </row>
     <row r="1108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1108" s="1"/>
     </row>
-    <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1109" s="1"/>
+    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1110" s="1"/>
+    </row>
+    <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1111" s="1"/>
     </row>
     <row r="1112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1112" s="1"/>
@@ -6754,15 +7558,15 @@
     <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1116" s="1"/>
     </row>
-    <row r="1117" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1117" s="1"/>
-    </row>
-    <row r="1118" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1118" s="1"/>
-    </row>
     <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1119" s="1"/>
     </row>
+    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1120" s="1"/>
+    </row>
+    <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1121" s="1"/>
+    </row>
     <row r="1122" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1122" s="1"/>
     </row>
@@ -6778,36 +7582,15 @@
     <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1126" s="1"/>
     </row>
-    <row r="1127" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1127" s="1"/>
-    </row>
-    <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1128" s="1"/>
-    </row>
-    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1129" s="1"/>
-    </row>
-    <row r="1132" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1132" s="1"/>
-    </row>
-    <row r="1133" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1133" s="1"/>
-    </row>
-    <row r="1134" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1134" s="1"/>
-    </row>
-    <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1135" s="1"/>
-    </row>
-    <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1136" s="1"/>
-    </row>
-    <row r="1137" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1137" s="1"/>
-    </row>
     <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1138" s="1"/>
     </row>
+    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1139" s="1"/>
+    </row>
+    <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1140" s="1"/>
+    </row>
     <row r="1141" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1141" s="1"/>
     </row>
@@ -6823,15 +7606,15 @@
     <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1145" s="1"/>
     </row>
-    <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1146" s="1"/>
-    </row>
-    <row r="1147" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1147" s="1"/>
-    </row>
     <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1148" s="1"/>
     </row>
+    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1149" s="1"/>
+    </row>
+    <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1150" s="1"/>
+    </row>
     <row r="1151" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1151" s="1"/>
     </row>
@@ -6847,15 +7630,18 @@
     <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1155" s="1"/>
     </row>
-    <row r="1156" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1156" s="1"/>
-    </row>
     <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1157" s="1"/>
     </row>
     <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1158" s="1"/>
     </row>
+    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1159" s="1"/>
+    </row>
+    <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1160" s="1"/>
+    </row>
     <row r="1161" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1161" s="1"/>
     </row>
@@ -6868,18 +7654,18 @@
     <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1164" s="1"/>
     </row>
-    <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1165" s="1"/>
-    </row>
-    <row r="1166" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1166" s="1"/>
-    </row>
     <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1167" s="1"/>
     </row>
     <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1168" s="1"/>
     </row>
+    <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1169" s="1"/>
+    </row>
+    <row r="1170" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1170" s="1"/>
+    </row>
     <row r="1171" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1171" s="1"/>
     </row>
@@ -6892,15 +7678,15 @@
     <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1174" s="1"/>
     </row>
-    <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1175" s="1"/>
-    </row>
-    <row r="1176" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1176" s="1"/>
-    </row>
     <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1177" s="1"/>
     </row>
+    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1178" s="1"/>
+    </row>
+    <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1179" s="1"/>
+    </row>
     <row r="1180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1180" s="1"/>
     </row>
@@ -6916,15 +7702,15 @@
     <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1184" s="1"/>
     </row>
-    <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1185" s="1"/>
-    </row>
-    <row r="1186" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1186" s="1"/>
-    </row>
     <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1187" s="1"/>
     </row>
+    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1188" s="1"/>
+    </row>
+    <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1189" s="1"/>
+    </row>
     <row r="1190" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1190" s="1"/>
     </row>
@@ -6937,18 +7723,18 @@
     <row r="1193" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1193" s="1"/>
     </row>
-    <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1194" s="1"/>
-    </row>
-    <row r="1195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1195" s="1"/>
-    </row>
     <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1196" s="1"/>
     </row>
     <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1197" s="1"/>
     </row>
+    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1198" s="1"/>
+    </row>
+    <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1199" s="1"/>
+    </row>
     <row r="1200" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1200" s="1"/>
     </row>
@@ -6961,18 +7747,18 @@
     <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1203" s="1"/>
     </row>
-    <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1204" s="1"/>
-    </row>
-    <row r="1205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1205" s="1"/>
-    </row>
     <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1206" s="1"/>
     </row>
     <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1207" s="1"/>
     </row>
+    <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1208" s="1"/>
+    </row>
+    <row r="1209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1209" s="1"/>
+    </row>
     <row r="1210" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1210" s="1"/>
     </row>
@@ -6985,15 +7771,15 @@
     <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1213" s="1"/>
     </row>
-    <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1214" s="1"/>
-    </row>
-    <row r="1215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1215" s="1"/>
-    </row>
     <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1216" s="1"/>
     </row>
+    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1217" s="1"/>
+    </row>
+    <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1218" s="1"/>
+    </row>
     <row r="1219" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1219" s="1"/>
     </row>
@@ -7009,15 +7795,15 @@
     <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1223" s="1"/>
     </row>
-    <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1224" s="1"/>
-    </row>
-    <row r="1225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1225" s="1"/>
-    </row>
     <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1226" s="1"/>
     </row>
+    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1227" s="1"/>
+    </row>
+    <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1228" s="1"/>
+    </row>
     <row r="1229" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1229" s="1"/>
     </row>
@@ -7030,32 +7816,161 @@
     <row r="1232" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1232" s="1"/>
     </row>
-    <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1233" s="1"/>
-    </row>
-    <row r="1234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1234" s="1"/>
-    </row>
     <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1235" s="1"/>
     </row>
+    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1236" s="1"/>
+    </row>
     <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1237" s="1"/>
     </row>
+    <row r="1238" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1238" s="1"/>
+    </row>
+    <row r="1239" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1239" s="1"/>
+    </row>
+    <row r="1240" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1240" s="1"/>
+    </row>
+    <row r="1241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1241" s="1"/>
+    </row>
+    <row r="1242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1242" s="1"/>
+    </row>
+    <row r="1245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1245" s="1"/>
+    </row>
+    <row r="1246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1246" s="1"/>
+    </row>
+    <row r="1247" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1247" s="1"/>
+    </row>
+    <row r="1248" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1248" s="1"/>
+    </row>
+    <row r="1249" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1249" s="1"/>
+    </row>
+    <row r="1250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1250" s="1"/>
+    </row>
+    <row r="1251" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1251" s="1"/>
+    </row>
+    <row r="1252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1252" s="1"/>
+    </row>
+    <row r="1255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1255" s="1"/>
+    </row>
+    <row r="1256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1256" s="1"/>
+    </row>
+    <row r="1257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1257" s="1"/>
+    </row>
+    <row r="1258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1258" s="1"/>
+    </row>
+    <row r="1259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1259" s="1"/>
+    </row>
+    <row r="1260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1260" s="1"/>
+    </row>
+    <row r="1261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1261" s="1"/>
+    </row>
+    <row r="1262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1262" s="1"/>
+    </row>
+    <row r="1265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1265" s="1"/>
+    </row>
+    <row r="1266" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1266" s="1"/>
+    </row>
+    <row r="1267" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1267" s="1"/>
+    </row>
+    <row r="1268" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1268" s="1"/>
+    </row>
+    <row r="1269" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1269" s="1"/>
+    </row>
+    <row r="1270" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1270" s="1"/>
+    </row>
+    <row r="1271" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1271" s="1"/>
+    </row>
+    <row r="1274" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1274" s="1"/>
+    </row>
+    <row r="1275" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1275" s="1"/>
+    </row>
+    <row r="1276" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1276" s="1"/>
+    </row>
+    <row r="1277" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1277" s="1"/>
+    </row>
+    <row r="1278" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1278" s="1"/>
+    </row>
+    <row r="1279" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1279" s="1"/>
+    </row>
+    <row r="1280" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1280" s="1"/>
+    </row>
+    <row r="1281" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1281" s="1"/>
+    </row>
+    <row r="1284" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1284" s="1"/>
+    </row>
+    <row r="1285" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1285" s="1"/>
+    </row>
+    <row r="1286" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1286" s="1"/>
+    </row>
+    <row r="1287" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1287" s="1"/>
+    </row>
+    <row r="1288" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1288" s="1"/>
+    </row>
+    <row r="1289" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1289" s="1"/>
+    </row>
+    <row r="1290" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1290" s="1"/>
+    </row>
+    <row r="1292" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1292" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L341 I341:J341 N341:P341">
+  <conditionalFormatting sqref="L396 I396:J396 N396:P396">
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M309">
+  <conditionalFormatting sqref="M364">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1219">
+  <conditionalFormatting sqref="M1274">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M641">
+  <conditionalFormatting sqref="M696">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M902">
+  <conditionalFormatting sqref="M957">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7067,7 +7982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A193" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -7076,7 +7991,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7297,7 +8212,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -7309,7 +8226,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -7842,7 +8761,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -7854,7 +8775,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -7894,7 +8817,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -7976,7 +8901,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -7988,7 +8915,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -8016,7 +8945,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -8308,7 +9239,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -8320,7 +9253,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -8360,7 +9295,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -8372,7 +9309,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -8412,7 +9351,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -8424,7 +9365,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -8464,7 +9407,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8476,7 +9421,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -8516,7 +9463,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -8528,7 +9477,9 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -9560,7 +10511,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -9572,20 +10525,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="21" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9600,7 +10555,9 @@
       <c r="C171" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -9613,7 +10570,9 @@
       <c r="C172" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -9626,7 +10585,9 @@
       <c r="C173" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -9639,7 +10600,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -9652,7 +10615,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -9665,7 +10630,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -9678,7 +10645,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -9691,7 +10660,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -9704,7 +10675,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -9717,7 +10690,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -9730,7 +10705,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -9743,7 +10720,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -9756,7 +10735,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -9769,7 +10750,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -9782,7 +10765,9 @@
       <c r="C185" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -9795,7 +10780,9 @@
       <c r="C186" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -9808,7 +10795,9 @@
       <c r="C187" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -9821,7 +10810,9 @@
       <c r="C188" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -9833,7 +10824,9 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -10042,7 +11035,9 @@
       <c r="C204" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -10055,7 +11050,9 @@
       <c r="C205" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -10068,7 +11065,9 @@
       <c r="C206" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -10081,7 +11080,9 @@
       <c r="C207" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -10094,7 +11095,9 @@
       <c r="C208" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
@@ -10107,7 +11110,9 @@
       <c r="C209" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D209" s="7"/>
+      <c r="D209" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
@@ -10120,7 +11125,9 @@
       <c r="C210" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
@@ -10133,7 +11140,9 @@
       <c r="C211" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="7" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
@@ -10264,7 +11273,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -10277,7 +11286,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
+      <c r="A222" s="25" t="s">
         <v>430</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -10286,7 +11295,9 @@
       <c r="C222" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D222" s="5"/>
+      <c r="D222" s="5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
@@ -10299,7 +11310,9 @@
       <c r="C223" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
@@ -10318,212 +11331,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>538</v>
+      <c r="C225" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>539</v>
+      <c r="C226" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>540</v>
+      <c r="C227" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>541</v>
+      <c r="C228" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>542</v>
+      <c r="C229" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>543</v>
+      <c r="C230" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>544</v>
+      <c r="C231" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>545</v>
+      <c r="C232" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>546</v>
+      <c r="C233" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>547</v>
+      <c r="C234" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>548</v>
+      <c r="C235" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>549</v>
+      <c r="C236" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>550</v>
+      <c r="C237" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>551</v>
+      <c r="C238" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -10626,8 +11639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A150" sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10665,7 +11678,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -10907,7 +11920,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -12105,156 +13118,156 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C134" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B145" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="30" t="b">
+      <c r="C145" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="23" t="b">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B139" s="23" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="22" t="b">
+      <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
+++ b/app/config/tables/pediatria/forms/dischargeQuick/dischargeQuick.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EAF52A-FACE-43C7-88FA-1E9860B88BEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7813C76-D99E-404C-BFD5-3571A64DD302}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="634">
   <si>
     <t>setting_name</t>
   </si>
@@ -226,18 +226,6 @@
     <t>FiveYears</t>
   </si>
   <si>
-    <t>1 - Mother</t>
-  </si>
-  <si>
-    <t>2 - Father</t>
-  </si>
-  <si>
-    <t>4 - Grandparents</t>
-  </si>
-  <si>
-    <t>5 - Other</t>
-  </si>
-  <si>
     <t>VI - Card seen</t>
   </si>
   <si>
@@ -247,45 +235,6 @@
     <t>PC - Lost card</t>
   </si>
   <si>
-    <t>1 - Paulo</t>
-  </si>
-  <si>
-    <t>2 - Justino</t>
-  </si>
-  <si>
-    <t>3 - Domingos</t>
-  </si>
-  <si>
-    <t>4 - Lola</t>
-  </si>
-  <si>
-    <t>1 - Scar</t>
-  </si>
-  <si>
-    <t>2 - Ulcer</t>
-  </si>
-  <si>
-    <t>3 - Papule</t>
-  </si>
-  <si>
-    <t>4 - No scar</t>
-  </si>
-  <si>
-    <t>1 - Participated</t>
-  </si>
-  <si>
-    <t>2 - Did not participate</t>
-  </si>
-  <si>
-    <t>3 - Don't know</t>
-  </si>
-  <si>
-    <t>2 - Mother</t>
-  </si>
-  <si>
-    <t>3 - Other</t>
-  </si>
-  <si>
     <t>BA - Balanta</t>
   </si>
   <si>
@@ -442,18 +391,6 @@
     <t>OU - Outra</t>
   </si>
   <si>
-    <t>5 - Outra</t>
-  </si>
-  <si>
-    <t>1 - Mãe</t>
-  </si>
-  <si>
-    <t>2 - Pai</t>
-  </si>
-  <si>
-    <t>3 - Aunt/uncle</t>
-  </si>
-  <si>
     <t>display.constraint_message.text.portuguese</t>
   </si>
   <si>
@@ -481,42 +418,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>3 - Outra</t>
-  </si>
-  <si>
-    <t>2 - Mãe</t>
-  </si>
-  <si>
-    <t>1 - Vaccination card</t>
-  </si>
-  <si>
-    <t>1 - Cartão da vacina</t>
-  </si>
-  <si>
-    <t>6 - Criança maior</t>
-  </si>
-  <si>
-    <t>6 - Older child</t>
-  </si>
-  <si>
-    <t>2 - Ulcera (mandita)</t>
-  </si>
-  <si>
-    <t>1 - Cicatriz</t>
-  </si>
-  <si>
-    <t>3 - Cocula (papla fechado)</t>
-  </si>
-  <si>
-    <t>4 - Nada</t>
-  </si>
-  <si>
-    <t>3 - Tia/tio</t>
-  </si>
-  <si>
-    <t>4 - Avo</t>
-  </si>
-  <si>
     <t>MA - Criança maior</t>
   </si>
   <si>
@@ -526,12 +427,6 @@
     <t>CV - Cabo Verdiano</t>
   </si>
   <si>
-    <t>5 - Eduardo</t>
-  </si>
-  <si>
-    <t>6 - Miro</t>
-  </si>
-  <si>
     <t>BCGR</t>
   </si>
   <si>
@@ -649,15 +544,6 @@
     <t>PC - Perdeu o cartão</t>
   </si>
   <si>
-    <t>1 - Participou</t>
-  </si>
-  <si>
-    <t>2 - Não participou</t>
-  </si>
-  <si>
-    <t>3 - Não sabe</t>
-  </si>
-  <si>
     <t>inputAttributes.autocomplete</t>
   </si>
   <si>
@@ -1525,9 +1411,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>data('saidat')</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -1952,6 +1835,105 @@
   </si>
   <si>
     <t xml:space="preserve">end screen </t>
+  </si>
+  <si>
+    <t>saidai</t>
+  </si>
+  <si>
+    <t>data('saidai')</t>
+  </si>
+  <si>
+    <t>habcom</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Aunt/uncle</t>
+  </si>
+  <si>
+    <t>Tia/tio</t>
+  </si>
+  <si>
+    <t>Grandparents</t>
+  </si>
+  <si>
+    <t>Avo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t>Domingos</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Miro</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Cicatriz</t>
+  </si>
+  <si>
+    <t>Ulcer</t>
+  </si>
+  <si>
+    <t>Ulcera (mandita)</t>
+  </si>
+  <si>
+    <t>Papule</t>
+  </si>
+  <si>
+    <t>Cocula (papla fechado)</t>
+  </si>
+  <si>
+    <t>No scar</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Older child</t>
+  </si>
+  <si>
+    <t>Criança maior</t>
+  </si>
+  <si>
+    <t>Participated</t>
+  </si>
+  <si>
+    <t>Participou</t>
+  </si>
+  <si>
+    <t>Did not participate</t>
+  </si>
+  <si>
+    <t>Não participou</t>
+  </si>
+  <si>
+    <t>Vaccination card</t>
+  </si>
+  <si>
+    <t>Cartão da vacina</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +2503,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2530,7 +2512,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2570,16 +2552,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2603,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="D5" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2630,24 +2612,24 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2659,9 +2641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2669,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2708,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
         <v>42</v>
@@ -2717,22 +2699,22 @@
         <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
         <v>24</v>
@@ -2751,13 +2733,13 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G3" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="H3" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2765,7 +2747,7 @@
     </row>
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2781,13 +2763,13 @@
     </row>
     <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2795,16 +2777,16 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="H7" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="P7" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,43 +2794,43 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="G8" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="H8" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="P8" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="L11">
         <v>99</v>
@@ -2856,10 +2838,10 @@
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="L12">
         <v>99</v>
@@ -2867,15 +2849,15 @@
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F14" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2896,16 +2878,16 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="H17" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="P17" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,13 +2898,13 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="G18" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="H18" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,13 +2919,13 @@
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G21" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2951,16 +2933,16 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="H22" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="P22" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,25 +2950,25 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G23" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="H23" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="I23" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="J23" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="K23" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="P23" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,16 +2976,16 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="G24" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="H24" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="P24" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,16 +2993,16 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="G25" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="H25" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="P25" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,36 +3017,36 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="H28" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="P28" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="H29" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="P29" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,16 +3064,16 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="H32" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="P32" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
@@ -3099,16 +3081,16 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="H33" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="P33" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -3116,87 +3098,87 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>621</v>
+        <v>582</v>
       </c>
       <c r="H34" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="J34" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="K34" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="P34" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="I36" s="3"/>
       <c r="Q36" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="I37" s="3"/>
       <c r="L37" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="I38" s="3"/>
       <c r="Q38" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="I39" s="3"/>
       <c r="L39" t="s">
-        <v>620</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="I40" s="3"/>
     </row>
@@ -3218,24 +3200,24 @@
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="H43" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C44" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3246,16 +3228,16 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="F45" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="G45" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="H45" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3263,7 +3245,7 @@
     </row>
     <row r="46" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3287,43 +3269,43 @@
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="H49" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C51" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="L52">
         <v>9999</v>
@@ -3331,7 +3313,7 @@
     </row>
     <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3339,43 +3321,43 @@
         <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G54" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="H54" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C56" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F57" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="L57">
         <v>9999</v>
@@ -3383,7 +3365,7 @@
     </row>
     <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,43 +3373,43 @@
         <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="G59" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="H59" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="L62">
         <v>9999</v>
@@ -3435,7 +3417,7 @@
     </row>
     <row r="63" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -3453,16 +3435,16 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="F66" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G66" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="H66" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3472,10 +3454,10 @@
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3488,43 +3470,43 @@
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>377</v>
+        <v>601</v>
       </c>
       <c r="G70" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="H70" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F73" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L73" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,37 +3514,37 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="H74" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="P74" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F76" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L76" t="s">
-        <v>497</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,13 +3559,13 @@
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G80" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="H80" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3591,10 +3573,10 @@
         <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="P81" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3602,62 +3584,62 @@
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="P82" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="F83" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F85" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="L85" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F88" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="L88" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,43 +3654,46 @@
     </row>
     <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="G92" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="H92" t="s">
-        <v>511</v>
+        <v>472</v>
+      </c>
+      <c r="P92" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E93" t="s">
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F95" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="L95">
         <v>999</v>
@@ -3716,7 +3701,7 @@
     </row>
     <row r="96" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,43 +3709,43 @@
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="G97" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="H97" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="P97" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
         <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F100" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="L100">
         <v>99999</v>
@@ -3768,7 +3753,7 @@
     </row>
     <row r="101" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,16 +3771,16 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="F104" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="G104" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="H104" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,43 +3798,43 @@
         <v>35</v>
       </c>
       <c r="E107" t="s">
+        <v>319</v>
+      </c>
+      <c r="F107" t="s">
         <v>357</v>
       </c>
-      <c r="F107" t="s">
-        <v>395</v>
-      </c>
       <c r="G107" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="H107" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F108" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C109" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F110" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="L110">
         <v>9999</v>
@@ -3857,7 +3842,7 @@
     </row>
     <row r="111" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,43 +3850,43 @@
         <v>35</v>
       </c>
       <c r="E112" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F112" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="G112" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="H112" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E113" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F113" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C114" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F115" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="L115">
         <v>9999</v>
@@ -3909,7 +3894,7 @@
     </row>
     <row r="116" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,43 +3902,43 @@
         <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F117" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="G117" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="H117" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F118" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C119" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F120" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="L120">
         <v>9999</v>
@@ -3961,7 +3946,7 @@
     </row>
     <row r="121" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3969,16 +3954,16 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="G122" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="H122" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="P122" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
@@ -3996,40 +3981,40 @@
         <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="G125" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="H125" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
         <v>61</v>
       </c>
       <c r="F126" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C127" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F128" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="L128">
         <v>99999</v>
@@ -4037,7 +4022,7 @@
     </row>
     <row r="129" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
@@ -4045,68 +4030,68 @@
         <v>35</v>
       </c>
       <c r="E130" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="F130" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="G130" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="H130" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E131" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="F131" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" t="s">
         <v>488</v>
-      </c>
-      <c r="C132" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="133" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F133" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="L133" s="24" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="L134" s="24"/>
     </row>
     <row r="135" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F135" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="L135" s="24" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
@@ -4116,10 +4101,10 @@
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C138" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
@@ -4129,13 +4114,13 @@
     </row>
     <row r="140" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G140" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="H140" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,16 +4128,16 @@
         <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="G141" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="H141" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="P141" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,43 +4145,43 @@
         <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="G142" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="H142" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="P142" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E143" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="F143" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C144" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
     </row>
     <row r="145" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F145" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="L145">
         <v>99</v>
@@ -4204,10 +4189,10 @@
     </row>
     <row r="146" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="F146" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="L146">
         <v>99</v>
@@ -4215,7 +4200,7 @@
     </row>
     <row r="147" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
@@ -4225,12 +4210,12 @@
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="9:13" x14ac:dyDescent="0.25">
@@ -7982,7 +7967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="A193" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -8005,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,7 +8005,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,7 +8020,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8050,7 +8035,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,7 +8050,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8080,7 +8065,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,7 +8080,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8110,7 +8095,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,10 +8107,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>604</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,10 +8122,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>606</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8152,10 +8137,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>608</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8167,10 +8152,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>610</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>160</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,10 +8167,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,10 +8181,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,13 +8192,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,13 +8206,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8238,10 +8223,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,10 +8237,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,13 +8248,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8280,10 +8265,10 @@
         <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,10 +8280,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>612</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8310,10 +8295,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>613</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8325,10 +8310,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>614</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8340,10 +8325,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>615</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8355,10 +8340,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>616</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>164</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,10 +8355,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>165</v>
+        <v>617</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>165</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8385,10 +8370,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>75</v>
+        <v>618</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>156</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8400,10 +8385,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>155</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8415,10 +8400,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>77</v>
+        <v>622</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8430,10 +8415,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>624</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>158</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8445,10 +8430,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>154</v>
+        <v>626</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>153</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8460,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>205</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8475,10 +8460,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8505,10 +8490,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>632</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>152</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8520,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>150</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8535,113 +8520,113 @@
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>62</v>
@@ -8650,546 +8635,546 @@
         <v>40</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>"111111111"</f>
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>"999999999"</f>
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>62</v>
@@ -9198,397 +9183,397 @@
         <v>40</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -9598,12 +9583,12 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -9620,7 +9605,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -9637,7 +9622,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -9654,7 +9639,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -9671,7 +9656,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -9688,7 +9673,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -9705,7 +9690,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -9722,7 +9707,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -9739,7 +9724,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -9756,7 +9741,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -9766,12 +9751,12 @@
         <v>39</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -9788,7 +9773,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -9805,7 +9790,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -9822,7 +9807,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -9839,7 +9824,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9856,7 +9841,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -9873,7 +9858,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -9890,7 +9875,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -9907,7 +9892,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -9924,7 +9909,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -9934,12 +9919,12 @@
         <v>39</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -9956,7 +9941,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -9973,7 +9958,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -9990,7 +9975,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -10007,7 +9992,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -10024,7 +10009,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -10034,12 +10019,12 @@
         <v>39</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -10056,7 +10041,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -10073,7 +10058,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -10090,7 +10075,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -10100,12 +10085,12 @@
         <v>39</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -10122,7 +10107,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -10139,7 +10124,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -10156,7 +10141,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -10173,7 +10158,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -10190,7 +10175,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -10207,7 +10192,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -10224,7 +10209,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -10241,7 +10226,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -10258,7 +10243,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -10268,12 +10253,12 @@
         <v>39</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -10290,7 +10275,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -10307,7 +10292,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -10324,7 +10309,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -10334,199 +10319,199 @@
         <v>39</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="C169" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -10541,612 +10526,612 @@
         <v>39</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -11156,124 +11141,124 @@
         <v>39</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -11282,41 +11267,41 @@
         <v>39</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -11326,217 +11311,217 @@
         <v>39</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -11568,7 +11553,7 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11576,10 +11561,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -11613,7 +11598,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11627,7 +11612,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -11637,10 +11622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11659,7 +11644,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -11667,7 +11652,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
@@ -11678,7 +11663,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -11689,7 +11674,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>35</v>
@@ -11700,10 +11685,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -11711,10 +11696,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C6" s="10" t="b">
         <v>0</v>
@@ -11722,7 +11707,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -11733,7 +11718,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -11744,7 +11729,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -11755,7 +11740,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -11766,7 +11751,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>19</v>
@@ -11777,7 +11762,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -11788,7 +11773,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -11799,7 +11784,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -11810,7 +11795,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -11821,7 +11806,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>35</v>
@@ -11832,7 +11817,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>35</v>
@@ -11843,10 +11828,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C18" s="10" t="b">
         <v>0</v>
@@ -11854,7 +11839,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>35</v>
@@ -11865,10 +11850,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C20" s="10" t="b">
         <v>0</v>
@@ -11876,7 +11861,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -11887,7 +11872,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -11898,7 +11883,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -11909,7 +11894,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>8</v>
@@ -11920,7 +11905,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -11931,7 +11916,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>19</v>
@@ -11942,7 +11927,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -11953,7 +11938,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -11964,7 +11949,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>19</v>
@@ -11975,7 +11960,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>8</v>
@@ -11986,10 +11971,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>325</v>
+        <v>603</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="b">
         <v>0</v>
@@ -11997,32 +11982,32 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C32" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>326</v>
+      <c r="A33" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C33" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>327</v>
+      <c r="A34" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C34" s="10" t="b">
         <v>0</v>
@@ -12030,10 +12015,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10" t="b">
         <v>0</v>
@@ -12041,7 +12026,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>8</v>
@@ -12052,7 +12037,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>8</v>
@@ -12063,32 +12048,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="C38" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>332</v>
+      <c r="A39" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="C39" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>333</v>
+      <c r="A40" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C40" s="10" t="b">
         <v>0</v>
@@ -12096,10 +12081,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C41" s="10" t="b">
         <v>0</v>
@@ -12107,21 +12092,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C42" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>334</v>
+      <c r="A43" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C43" s="10" t="b">
         <v>0</v>
@@ -12129,7 +12114,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>20</v>
@@ -12140,21 +12125,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>486</v>
+        <v>297</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>336</v>
+      <c r="A46" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C46" s="10" t="b">
         <v>0</v>
@@ -12162,10 +12147,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="10" t="b">
         <v>0</v>
@@ -12173,10 +12158,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="10" t="b">
         <v>0</v>
@@ -12184,10 +12169,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="10" t="b">
         <v>0</v>
@@ -12195,10 +12180,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="10" t="b">
         <v>0</v>
@@ -12206,7 +12191,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>19</v>
@@ -12217,7 +12202,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>19</v>
@@ -12228,10 +12213,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="C53" s="10" t="b">
         <v>0</v>
@@ -12239,32 +12224,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="C54" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>344</v>
+      <c r="A55" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C55" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>389</v>
+      <c r="A56" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C56" s="10" t="b">
         <v>0</v>
@@ -12272,7 +12257,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>8</v>
@@ -12282,11 +12267,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>345</v>
+      <c r="A58" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" s="10" t="b">
         <v>0</v>
@@ -12294,7 +12279,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>20</v>
@@ -12305,7 +12290,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>20</v>
@@ -12316,7 +12301,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>20</v>
@@ -12327,7 +12312,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>20</v>
@@ -12338,7 +12323,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>20</v>
@@ -12349,7 +12334,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>20</v>
@@ -12360,7 +12345,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>20</v>
@@ -12370,8 +12355,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>353</v>
+      <c r="A66" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>20</v>
@@ -12381,8 +12366,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>354</v>
+      <c r="A67" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>20</v>
@@ -12393,7 +12378,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>20</v>
@@ -12404,7 +12389,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>20</v>
@@ -12414,19 +12399,19 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="13" t="b">
-        <v>1</v>
+      <c r="A70" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>8</v>
@@ -12437,7 +12422,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -12448,7 +12433,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>8</v>
@@ -12459,7 +12444,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>8</v>
@@ -12470,7 +12455,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>8</v>
@@ -12481,10 +12466,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C76" s="13" t="b">
         <v>1</v>
@@ -12492,10 +12477,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C77" s="13" t="b">
         <v>1</v>
@@ -12503,10 +12488,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C78" s="13" t="b">
         <v>1</v>
@@ -12514,7 +12499,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>35</v>
@@ -12525,10 +12510,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C80" s="13" t="b">
         <v>1</v>
@@ -12536,21 +12521,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C81" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>269</v>
+      <c r="A82" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C82" s="13" t="b">
         <v>1</v>
@@ -12558,10 +12543,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C83" s="13" t="b">
         <v>1</v>
@@ -12569,10 +12554,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C84" s="13" t="b">
         <v>1</v>
@@ -12580,10 +12565,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C85" s="13" t="b">
         <v>1</v>
@@ -12591,10 +12576,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C86" s="13" t="b">
         <v>1</v>
@@ -12602,21 +12587,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C87" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>241</v>
+      <c r="A88" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C88" s="13" t="b">
         <v>1</v>
@@ -12624,7 +12609,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>35</v>
@@ -12635,7 +12620,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>35</v>
@@ -12646,7 +12631,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>35</v>
@@ -12657,7 +12642,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>35</v>
@@ -12668,7 +12653,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>35</v>
@@ -12679,7 +12664,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>35</v>
@@ -12690,10 +12675,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C95" s="13" t="b">
         <v>1</v>
@@ -12701,10 +12686,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C96" s="13" t="b">
         <v>1</v>
@@ -12712,10 +12697,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C97" s="13" t="b">
         <v>1</v>
@@ -12723,10 +12708,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="b">
         <v>1</v>
@@ -12734,10 +12719,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C99" s="13" t="b">
         <v>1</v>
@@ -12745,21 +12730,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C100" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>92</v>
+      <c r="A101" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C101" s="13" t="b">
         <v>1</v>
@@ -12767,10 +12752,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C102" s="13" t="b">
         <v>1</v>
@@ -12778,10 +12763,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C103" s="13" t="b">
         <v>1</v>
@@ -12789,10 +12774,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C104" s="13" t="b">
         <v>1</v>
@@ -12800,10 +12785,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C105" s="13" t="b">
         <v>1</v>
@@ -12811,10 +12796,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C106" s="13" t="b">
         <v>1</v>
@@ -12822,10 +12807,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C107" s="13" t="b">
         <v>1</v>
@@ -12833,10 +12818,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C108" s="13" t="b">
         <v>1</v>
@@ -12844,10 +12829,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C109" s="13" t="b">
         <v>1</v>
@@ -12855,10 +12840,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C110" s="13" t="b">
         <v>1</v>
@@ -12866,10 +12851,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C111" s="13" t="b">
         <v>1</v>
@@ -12877,10 +12862,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C112" s="13" t="b">
         <v>1</v>
@@ -12888,10 +12873,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C113" s="13" t="b">
         <v>1</v>
@@ -12899,10 +12884,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C114" s="13" t="b">
         <v>1</v>
@@ -12910,10 +12895,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C115" s="13" t="b">
         <v>1</v>
@@ -12921,10 +12906,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C116" s="13" t="b">
         <v>1</v>
@@ -12932,10 +12917,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C117" s="13" t="b">
         <v>1</v>
@@ -12943,10 +12928,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C118" s="13" t="b">
         <v>1</v>
@@ -12954,10 +12939,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C119" s="13" t="b">
         <v>1</v>
@@ -12965,10 +12950,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C120" s="13" t="b">
         <v>1</v>
@@ -12976,10 +12961,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C121" s="13" t="b">
         <v>1</v>
@@ -12987,10 +12972,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C122" s="13" t="b">
         <v>1</v>
@@ -12998,10 +12983,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C123" s="13" t="b">
         <v>1</v>
@@ -13009,10 +12994,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C124" s="13" t="b">
         <v>1</v>
@@ -13020,10 +13005,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C125" s="13" t="b">
         <v>1</v>
@@ -13031,32 +13016,32 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C126" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="12" t="b">
-        <v>0</v>
+      <c r="A127" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" s="12" t="b">
         <v>0</v>
@@ -13064,7 +13049,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>8</v>
@@ -13075,7 +13060,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>483</v>
+        <v>331</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>8</v>
@@ -13085,22 +13070,22 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" s="16" t="b">
-        <v>1</v>
+      <c r="A131" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C132" s="16" t="b">
         <v>1</v>
@@ -13108,54 +13093,54 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>484</v>
+        <v>335</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C133" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="B134" s="28" t="s">
+      <c r="A134" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="28" t="b">
+      <c r="C135" s="28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="B135" s="29" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="22" t="b">
+      <c r="C136" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C137" s="22" t="b">
         <v>0</v>
@@ -13163,7 +13148,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="B138" s="22" t="s">
         <v>8</v>
@@ -13174,10 +13159,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" s="22" t="b">
         <v>0</v>
@@ -13185,7 +13170,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="B140" s="22" t="s">
         <v>9</v>
@@ -13196,7 +13181,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="B141" s="22" t="s">
         <v>9</v>
@@ -13206,22 +13191,22 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="23" t="b">
-        <v>1</v>
+      <c r="A142" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
-        <v>535</v>
+        <v>423</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C143" s="23" t="b">
         <v>1</v>
@@ -13229,7 +13214,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>9</v>
@@ -13239,22 +13224,22 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="21" t="b">
-        <v>0</v>
+      <c r="A145" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C146" s="21" t="b">
         <v>0</v>
@@ -13262,29 +13247,29 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="17" t="b">
+      <c r="A148" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>8</v>
@@ -13295,7 +13280,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>8</v>
@@ -13306,7 +13291,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>8</v>
@@ -13317,10 +13302,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C152" s="17" t="b">
         <v>0</v>
@@ -13328,7 +13313,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>19</v>
@@ -13339,7 +13324,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>19</v>
@@ -13350,7 +13335,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>19</v>
@@ -13361,10 +13346,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="C156" s="17" t="b">
         <v>0</v>
@@ -13372,10 +13357,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="C157" s="17" t="b">
         <v>0</v>
@@ -13383,7 +13368,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>19</v>
@@ -13394,7 +13379,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>19</v>
@@ -13408,7 +13393,7 @@
         <v>377</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C160" s="17" t="b">
         <v>0</v>
@@ -13416,10 +13401,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C161" s="17" t="b">
         <v>0</v>
@@ -13427,10 +13412,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C162" s="17" t="b">
         <v>0</v>
@@ -13438,7 +13423,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>35</v>
@@ -13449,32 +13434,32 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C164" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C165" s="18" t="b">
-        <v>1</v>
+      <c r="A165" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C166" s="18" t="b">
         <v>1</v>
@@ -13482,10 +13467,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C167" s="18" t="b">
         <v>1</v>
@@ -13493,21 +13478,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C168" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>469</v>
+      <c r="A169" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C169" s="18" t="b">
         <v>1</v>
@@ -13515,32 +13500,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C170" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
-        <v>427</v>
+      <c r="A171" s="18" t="s">
+        <v>388</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C171" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>428</v>
+      <c r="A172" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C172" s="18" t="b">
         <v>1</v>
@@ -13548,10 +13533,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C173" s="18" t="b">
         <v>1</v>
@@ -13559,10 +13544,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C174" s="18" t="b">
         <v>1</v>
@@ -13570,10 +13555,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>481</v>
+        <v>601</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C175" s="18" t="b">
         <v>1</v>
@@ -13581,10 +13566,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>482</v>
+        <v>350</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C176" s="18" t="b">
         <v>1</v>
@@ -13592,12 +13577,34 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C177" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C178" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179" s="18" t="b">
         <v>1</v>
       </c>
     </row>
